--- a/QuantLibXL/Data2/XLS/JPY/JPY_CurvesBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY/JPY_CurvesBootstrapping.xlsx
@@ -1255,7 +1255,7 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1726,6 +1726,9 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Euro" xfId="6"/>
@@ -1774,17 +1777,17 @@
       <sheetData sheetId="1">
         <row r="4">
           <cell r="D4" t="str">
-            <v>JPYON#0000</v>
+            <v>JPYON#0020</v>
           </cell>
         </row>
         <row r="9">
           <cell r="D9" t="str">
-            <v>JPY3M#0000</v>
+            <v>JPY3M#0020</v>
           </cell>
         </row>
         <row r="10">
           <cell r="D10" t="str">
-            <v>JPY6M#0000</v>
+            <v>JPY6M#0020</v>
           </cell>
         </row>
       </sheetData>
@@ -2136,7 +2139,7 @@
       </c>
       <c r="I3" s="15">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42277</v>
+        <v>42445</v>
       </c>
       <c r="J3" s="93"/>
     </row>
@@ -2155,7 +2158,7 @@
       </c>
       <c r="I4" s="17">
         <f>_xll.qlCalendarAdvance(Calendar,Evaluationdate,"2D","F",,Trigger)</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="J4" s="93"/>
     </row>
@@ -2317,7 +2320,7 @@
       </c>
       <c r="D15" s="44" t="str">
         <f>_xll.qlPiecewiseYieldCurve($D$17,$D$18,Calendar,_xll.ohPack(JPYON!S3:S56),,,,D19,D20,D21,Permanent,,ObjectOverwrite)</f>
-        <v>_JPYON#0001</v>
+        <v>_JPYON#0005</v>
       </c>
       <c r="E15" s="45"/>
       <c r="G15" s="25"/>
@@ -2326,7 +2329,7 @@
       </c>
       <c r="I15" s="44" t="str">
         <f>_xll.qlPiecewiseYieldCurve(I17,I18,Calendar,_xll.ohPack(JPY3M!W3:W79),,,,I19,I20,I21,Permanent,,ObjectOverwrite)</f>
-        <v>_JPY3M#0001</v>
+        <v>_JPY3M#0012</v>
       </c>
       <c r="J15" s="45"/>
     </row>
@@ -2452,7 +2455,7 @@
       <c r="B23" s="25"/>
       <c r="C23" s="34">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_ON)</f>
-        <v>42277</v>
+        <v>42445</v>
       </c>
       <c r="D23" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_ON,C23,,Trigger)</f>
@@ -2462,7 +2465,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="34">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_3M)</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="I23" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_3M,H23,,Trigger)</f>
@@ -2474,21 +2477,21 @@
       <c r="B24" s="25"/>
       <c r="C24" s="36">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_ON,Trigger)</f>
-        <v>53244</v>
+        <v>53405</v>
       </c>
       <c r="D24" s="37">
         <f>_xll.qlYieldTSDiscount(YieldCurve_ON,C24,,Trigger)</f>
-        <v>0.67828859088643567</v>
+        <v>0.84479032407989563</v>
       </c>
       <c r="E24" s="45"/>
       <c r="G24" s="25"/>
       <c r="H24" s="36">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_3M,Trigger)</f>
-        <v>53244</v>
+        <v>53405</v>
       </c>
       <c r="I24" s="37">
         <f>_xll.qlYieldTSDiscount(YieldCurve_3M,H24,,Trigger)</f>
-        <v>0.65767279327314176</v>
+        <v>0.80636689108188098</v>
       </c>
       <c r="J24" s="45"/>
     </row>
@@ -2496,7 +2499,7 @@
       <c r="B25" s="25"/>
       <c r="C25" s="36" t="str">
         <f>[1]JPYLibor!$D$4</f>
-        <v>JPYON#0000</v>
+        <v>JPYON#0020</v>
       </c>
       <c r="D25" s="37" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C25,D15,Trigger)</f>
@@ -2506,7 +2509,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="36" t="str">
         <f>[1]JPYLibor!$D$9</f>
-        <v>JPY3M#0000</v>
+        <v>JPY3M#0020</v>
       </c>
       <c r="I25" s="37" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(H25,I15,Trigger)</f>
@@ -2568,7 +2571,7 @@
       </c>
       <c r="D30" s="44" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D32,D33,Calendar,_xll.ohPack(JPY6M!W3:W58),,,,D34,D35,D36,Permanent,,ObjectOverwrite)</f>
-        <v>_JPY6M#0001</v>
+        <v>_JPY6M#0005</v>
       </c>
       <c r="E30" s="45"/>
       <c r="F30" s="52"/>
@@ -2650,7 +2653,7 @@
       <c r="B38" s="25"/>
       <c r="C38" s="34">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve_6M)</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="D38" s="35">
         <f>_xll.qlYieldTSDiscount(YieldCurve_6M,C38,,Trigger)</f>
@@ -2663,11 +2666,11 @@
       <c r="B39" s="25"/>
       <c r="C39" s="36">
         <f>_xll.qlTermStructureMaxDate(YieldCurve_6M,Trigger)</f>
-        <v>53244</v>
+        <v>53405</v>
       </c>
       <c r="D39" s="37">
         <f>_xll.qlYieldTSDiscount(YieldCurve_6M,C39,,Trigger)</f>
-        <v>0.6516336969823332</v>
+        <v>0.80527894072144468</v>
       </c>
       <c r="E39" s="45"/>
       <c r="F39" s="52"/>
@@ -2676,7 +2679,7 @@
       <c r="B40" s="25"/>
       <c r="C40" s="36" t="str">
         <f>[1]JPYLibor!$D$10</f>
-        <v>JPY6M#0000</v>
+        <v>JPY6M#0020</v>
       </c>
       <c r="D40" s="37" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C40,D30,Trigger)</f>
@@ -2745,7 +2748,7 @@
   <dimension ref="A1:AH80"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2955,7 +2958,7 @@
       </c>
       <c r="S3" s="4" t="str">
         <f t="array" ref="S3:S59">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AF$3,$AF$4,$AF$5,$AF$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_001bb</v>
+        <v>obj_001d0</v>
       </c>
       <c r="T3" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S3,Trigger),"")</f>
@@ -2963,7 +2966,7 @@
       </c>
       <c r="U3" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S3,Trigger),"")</f>
-        <v>7.2500000000000006E-4</v>
+        <v>-3.7499999999999997E-5</v>
       </c>
       <c r="V3" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S3)),_xll.qlSwapRateHelperSpread($S3))</f>
@@ -2971,14 +2974,14 @@
       </c>
       <c r="W3" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S3,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X3" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S3,Trigger),"")</f>
-        <v>42310</v>
+        <v>42478</v>
       </c>
       <c r="Y3" s="84">
-        <v>0.99993448053827971</v>
+        <v>1.0000031856508242</v>
       </c>
       <c r="AB3" s="203" t="s">
         <v>113</v>
@@ -3048,7 +3051,7 @@
         <v>OIS</v>
       </c>
       <c r="S4" s="4" t="str">
-        <v>obj_001ac</v>
+        <v>obj_001ce</v>
       </c>
       <c r="T4" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S4,Trigger),"")</f>
@@ -3056,7 +3059,7 @@
       </c>
       <c r="U4" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S4,Trigger),"")</f>
-        <v>7.2500000000000006E-4</v>
+        <v>-1.6249999999999999E-4</v>
       </c>
       <c r="V4" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S4)),_xll.qlSwapRateHelperSpread($S4))</f>
@@ -3064,14 +3067,14 @@
       </c>
       <c r="W4" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S4,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X4" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S4,Trigger),"")</f>
-        <v>42340</v>
+        <v>42508</v>
       </c>
       <c r="Y4" s="84">
-        <v>0.99987490262015821</v>
+        <v>1.0000271589809799</v>
       </c>
       <c r="AB4" s="118" t="s">
         <v>114</v>
@@ -3100,7 +3103,7 @@
       </c>
       <c r="F5" s="3" t="str">
         <f>_xll.qlFraRateHelper(,E5,C5,D5,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001c7#0001</v>
+        <v>obj_001c4#0005</v>
       </c>
       <c r="G5" s="53"/>
       <c r="H5" s="12" t="str">
@@ -3109,7 +3112,7 @@
       </c>
       <c r="I5" s="106" t="str">
         <f t="shared" si="0"/>
-        <v>obj_001c7#0001</v>
+        <v>obj_001c4#0005</v>
       </c>
       <c r="J5" s="111" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I5,Trigger),"--")</f>
@@ -3117,7 +3120,7 @@
       </c>
       <c r="K5" s="112">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I5,Trigger),"--")</f>
-        <v>2.0000000000000001E-4</v>
+        <v>-2.7710000000000001E-4</v>
       </c>
       <c r="L5" s="111" t="b">
         <v>0</v>
@@ -3130,18 +3133,18 @@
       </c>
       <c r="O5" s="113">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I5,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P5" s="113">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I5,Trigger),"--")</f>
-        <v>42282</v>
+        <v>42451</v>
       </c>
       <c r="R5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="S5" s="4" t="str">
-        <v>obj_001a8</v>
+        <v>obj_001bb</v>
       </c>
       <c r="T5" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S5,Trigger),"")</f>
@@ -3149,7 +3152,7 @@
       </c>
       <c r="U5" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S5,Trigger),"")</f>
-        <v>7.000000000000001E-4</v>
+        <v>-3.2499999999999999E-4</v>
       </c>
       <c r="V5" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S5)),_xll.qlSwapRateHelperSpread($S5))</f>
@@ -3157,14 +3160,14 @@
       </c>
       <c r="W5" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S5,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X5" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S5,Trigger),"")</f>
-        <v>42373</v>
+        <v>42541</v>
       </c>
       <c r="Y5" s="84">
-        <v>0.99981581107762163</v>
+        <v>1.0000837063454058</v>
       </c>
       <c r="AB5" s="118" t="s">
         <v>115</v>
@@ -3213,7 +3216,7 @@
         <v>OIS</v>
       </c>
       <c r="S6" s="4" t="str">
-        <v>obj_001b5</v>
+        <v>obj_001d7</v>
       </c>
       <c r="T6" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S6,Trigger),"")</f>
@@ -3221,7 +3224,7 @@
       </c>
       <c r="U6" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S6,Trigger),"")</f>
-        <v>6.7500000000000004E-4</v>
+        <v>-4.75E-4</v>
       </c>
       <c r="V6" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S6)),_xll.qlSwapRateHelperSpread($S6))</f>
@@ -3229,14 +3232,14 @@
       </c>
       <c r="W6" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S6,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X6" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S6,Trigger),"")</f>
-        <v>42402</v>
+        <v>42570</v>
       </c>
       <c r="Y6" s="84">
-        <v>0.99976863871927291</v>
+        <v>1.000160094828451</v>
       </c>
       <c r="AB6" s="118" t="s">
         <v>116</v>
@@ -3303,7 +3306,7 @@
         <v>OIS</v>
       </c>
       <c r="S7" s="4" t="str">
-        <v>obj_001ae</v>
+        <v>obj_001d6</v>
       </c>
       <c r="T7" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S7,Trigger),"")</f>
@@ -3311,7 +3314,7 @@
       </c>
       <c r="U7" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S7,Trigger),"")</f>
-        <v>6.4999999999999997E-4</v>
+        <v>-6.1249999999999998E-4</v>
       </c>
       <c r="V7" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S7)),_xll.qlSwapRateHelperSpread($S7))</f>
@@ -3319,14 +3322,14 @@
       </c>
       <c r="W7" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S7,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X7" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S7,Trigger),"")</f>
-        <v>42431</v>
+        <v>42600</v>
       </c>
       <c r="Y7" s="84">
-        <v>0.99972544123329987</v>
+        <v>1.0002568132204197</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3388,7 +3391,7 @@
         <v>OIS</v>
       </c>
       <c r="S8" s="4" t="str">
-        <v>obj_001b2</v>
+        <v>obj_001ca</v>
       </c>
       <c r="T8" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S8,Trigger),"")</f>
@@ -3396,7 +3399,7 @@
       </c>
       <c r="U8" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S8,Trigger),"")</f>
-        <v>6.249999999999999E-4</v>
+        <v>-7.3749999999999998E-4</v>
       </c>
       <c r="V8" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S8)),_xll.qlSwapRateHelperSpread($S8))</f>
@@ -3404,14 +3407,14 @@
       </c>
       <c r="W8" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S8,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X8" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S8,Trigger),"")</f>
-        <v>42464</v>
+        <v>42633</v>
       </c>
       <c r="Y8" s="84">
-        <v>0.99967937259258921</v>
+        <v>1.0003759639224528</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3441,7 +3444,7 @@
       </c>
       <c r="I9" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001bb#0001</v>
+        <v>obj_001d0#0005</v>
       </c>
       <c r="J9" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I9,Trigger),"--")</f>
@@ -3449,7 +3452,7 @@
       </c>
       <c r="K9" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I9,Trigger),"--")</f>
-        <v>7.2500000000000006E-4</v>
+        <v>-3.7499999999999997E-5</v>
       </c>
       <c r="L9" s="108" t="b">
         <v>1</v>
@@ -3462,18 +3465,18 @@
       </c>
       <c r="O9" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I9,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P9" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I9,Trigger),"--")</f>
-        <v>42310</v>
+        <v>42478</v>
       </c>
       <c r="R9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="S9" s="4" t="str">
-        <v>obj_001c2</v>
+        <v>obj_001cc</v>
       </c>
       <c r="T9" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S9,Trigger),"")</f>
@@ -3481,7 +3484,7 @@
       </c>
       <c r="U9" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S9,Trigger),"")</f>
-        <v>5.7499999999999999E-4</v>
+        <v>-1.0624999999999999E-3</v>
       </c>
       <c r="V9" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S9)),_xll.qlSwapRateHelperSpread($S9))</f>
@@ -3489,14 +3492,14 @@
       </c>
       <c r="W9" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S9,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X9" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S9,Trigger),"")</f>
-        <v>42555</v>
+        <v>42723</v>
       </c>
       <c r="Y9" s="84">
-        <v>0.99956144800534918</v>
+        <v>1.0008040713774677</v>
       </c>
       <c r="AC9" s="51" t="s">
         <v>157</v>
@@ -3529,7 +3532,7 @@
       </c>
       <c r="I10" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001ac#0001</v>
+        <v>obj_001ce#0005</v>
       </c>
       <c r="J10" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I10,Trigger),"--")</f>
@@ -3537,7 +3540,7 @@
       </c>
       <c r="K10" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I10,Trigger),"--")</f>
-        <v>7.2500000000000006E-4</v>
+        <v>-1.6249999999999999E-4</v>
       </c>
       <c r="L10" s="108" t="b">
         <v>1</v>
@@ -3550,18 +3553,18 @@
       </c>
       <c r="O10" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I10,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P10" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I10,Trigger),"--")</f>
-        <v>42340</v>
+        <v>42508</v>
       </c>
       <c r="R10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="S10" s="4" t="str">
-        <v>obj_001c9</v>
+        <v>obj_001cd</v>
       </c>
       <c r="T10" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S10,Trigger),"")</f>
@@ -3569,7 +3572,7 @@
       </c>
       <c r="U10" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S10,Trigger),"")</f>
-        <v>5.2499999999999997E-4</v>
+        <v>-1.3500000000000001E-3</v>
       </c>
       <c r="V10" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S10)),_xll.qlSwapRateHelperSpread($S10))</f>
@@ -3577,14 +3580,14 @@
       </c>
       <c r="W10" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S10,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X10" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S10,Trigger),"")</f>
-        <v>42646</v>
+        <v>42815</v>
       </c>
       <c r="Y10" s="84">
-        <v>0.99946845572340925</v>
+        <v>1.0013629517075413</v>
       </c>
       <c r="AA10" s="80" t="s">
         <v>158</v>
@@ -3632,7 +3635,7 @@
       </c>
       <c r="F11" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C11,B11,E11,$D11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001bb#0001</v>
+        <v>obj_001d0#0005</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="11" t="str">
@@ -3641,7 +3644,7 @@
       </c>
       <c r="I11" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001a8#0001</v>
+        <v>obj_001bb#0005</v>
       </c>
       <c r="J11" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I11,Trigger),"--")</f>
@@ -3649,7 +3652,7 @@
       </c>
       <c r="K11" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I11,Trigger),"--")</f>
-        <v>7.000000000000001E-4</v>
+        <v>-3.2499999999999999E-4</v>
       </c>
       <c r="L11" s="108" t="b">
         <v>1</v>
@@ -3662,18 +3665,18 @@
       </c>
       <c r="O11" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I11,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P11" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I11,Trigger),"--")</f>
-        <v>42373</v>
+        <v>42541</v>
       </c>
       <c r="R11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="S11" s="4" t="str">
-        <v>obj_001b6</v>
+        <v>obj_001dc</v>
       </c>
       <c r="T11" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S11,Trigger),"")</f>
@@ -3681,7 +3684,7 @@
       </c>
       <c r="U11" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S11,Trigger),"")</f>
-        <v>4.75E-4</v>
+        <v>-1.7625000000000002E-3</v>
       </c>
       <c r="V11" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S11)),_xll.qlSwapRateHelperSpread($S11))</f>
@@ -3689,21 +3692,21 @@
       </c>
       <c r="W11" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S11,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X11" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S11,Trigger),"")</f>
-        <v>42828</v>
+        <v>42997</v>
       </c>
       <c r="Y11" s="84">
-        <v>0.99928201709076536</v>
+        <v>1.0026608371761849</v>
       </c>
       <c r="AA11" s="185">
         <v>1</v>
       </c>
       <c r="AB11" s="186">
         <f>_xll.qlCalendarEndOfMonth(Calendar,Settlementdate,Trigger)</f>
-        <v>42307</v>
+        <v>42460</v>
       </c>
       <c r="AC11" s="186" t="str">
         <f t="shared" ref="AC11:AC23" si="7">Currency&amp;$AC$9&amp;AA11&amp;JumpSuffix&amp;QuoteSuffix</f>
@@ -3711,7 +3714,7 @@
       </c>
       <c r="AD11" s="187">
         <f>_xll.qlDayCounterYearFraction("actual/360",AB11,_xll.qlCalendarAdvance(Calendar,AB11,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AE11" s="186" t="e">
         <f>IF(_xll.qlQuoteIsValid(AC11,Trigger),_xll.qlQuoteValue(AC11,Trigger),1)</f>
@@ -3748,7 +3751,7 @@
       </c>
       <c r="F12" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C12,B12,E12,$D12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ac#0001</v>
+        <v>obj_001ce#0005</v>
       </c>
       <c r="G12" s="53"/>
       <c r="H12" s="11" t="str">
@@ -3757,7 +3760,7 @@
       </c>
       <c r="I12" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001b5#0001</v>
+        <v>obj_001d7#0005</v>
       </c>
       <c r="J12" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I12,Trigger),"--")</f>
@@ -3765,7 +3768,7 @@
       </c>
       <c r="K12" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I12,Trigger),"--")</f>
-        <v>6.7500000000000004E-4</v>
+        <v>-4.75E-4</v>
       </c>
       <c r="L12" s="108" t="b">
         <v>1</v>
@@ -3778,18 +3781,18 @@
       </c>
       <c r="O12" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I12,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P12" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I12,Trigger),"--")</f>
-        <v>42402</v>
+        <v>42570</v>
       </c>
       <c r="R12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="S12" s="4" t="str">
-        <v>obj_001b9</v>
+        <v>obj_001c6</v>
       </c>
       <c r="T12" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S12,Trigger),"")</f>
@@ -3797,7 +3800,7 @@
       </c>
       <c r="U12" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S12,Trigger),"")</f>
-        <v>4.4999999999999999E-4</v>
+        <v>-2.0874999999999999E-3</v>
       </c>
       <c r="V12" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S12)),_xll.qlSwapRateHelperSpread($S12))</f>
@@ -3805,21 +3808,21 @@
       </c>
       <c r="W12" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S12,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X12" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S12,Trigger),"")</f>
-        <v>43010</v>
+        <v>43178</v>
       </c>
       <c r="Y12" s="84">
-        <v>0.99909546540015248</v>
+        <v>1.0041922918902177</v>
       </c>
       <c r="AA12" s="191">
         <v>2</v>
       </c>
       <c r="AB12" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AB11,"1m","mf",TRUE),Trigger)</f>
-        <v>42338</v>
+        <v>42489</v>
       </c>
       <c r="AC12" s="192" t="str">
         <f t="shared" si="7"/>
@@ -3827,7 +3830,7 @@
       </c>
       <c r="AD12" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AB12,_xll.qlCalendarAdvance(Calendar,AB12,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="AE12" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AC12,Trigger),_xll.qlQuoteValue(AC12,Trigger),1)</f>
@@ -3864,7 +3867,7 @@
       </c>
       <c r="F13" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C13,B13,E13,$D13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001a8#0001</v>
+        <v>obj_001bb#0005</v>
       </c>
       <c r="G13" s="53"/>
       <c r="H13" s="11" t="str">
@@ -3873,7 +3876,7 @@
       </c>
       <c r="I13" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001ae#0001</v>
+        <v>obj_001d6#0005</v>
       </c>
       <c r="J13" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I13,Trigger),"--")</f>
@@ -3881,7 +3884,7 @@
       </c>
       <c r="K13" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I13,Trigger),"--")</f>
-        <v>6.4999999999999997E-4</v>
+        <v>-6.1249999999999998E-4</v>
       </c>
       <c r="L13" s="108" t="b">
         <v>1</v>
@@ -3894,18 +3897,18 @@
       </c>
       <c r="O13" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I13,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P13" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I13,Trigger),"--")</f>
-        <v>42431</v>
+        <v>42600</v>
       </c>
       <c r="R13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="S13" s="4" t="str">
-        <v>obj_001c1</v>
+        <v>obj_001c7</v>
       </c>
       <c r="T13" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S13,Trigger),"")</f>
@@ -3913,7 +3916,7 @@
       </c>
       <c r="U13" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S13,Trigger),"")</f>
-        <v>5.2499999999999986E-4</v>
+        <v>-2.2249999999999995E-3</v>
       </c>
       <c r="V13" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S13)),_xll.qlSwapRateHelperSpread($S13))</f>
@@ -3921,21 +3924,21 @@
       </c>
       <c r="W13" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S13,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X13" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S13,Trigger),"")</f>
-        <v>43375</v>
+        <v>43542</v>
       </c>
       <c r="Y13" s="84">
-        <v>0.99842119653101702</v>
+        <v>1.0067022064934077</v>
       </c>
       <c r="AA13" s="191">
         <v>3</v>
       </c>
       <c r="AB13" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AB12,"1m","mf",TRUE),Trigger)</f>
-        <v>42369</v>
+        <v>42521</v>
       </c>
       <c r="AC13" s="192" t="str">
         <f t="shared" si="7"/>
@@ -3943,7 +3946,7 @@
       </c>
       <c r="AD13" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AB13,_xll.qlCalendarAdvance(Calendar,AB13,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AE13" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AC13,Trigger),_xll.qlQuoteValue(AC13,Trigger),1)</f>
@@ -3980,7 +3983,7 @@
       </c>
       <c r="F14" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C14,B14,E14,$D14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001b5#0001</v>
+        <v>obj_001d7#0005</v>
       </c>
       <c r="G14" s="53"/>
       <c r="H14" s="11" t="str">
@@ -3989,7 +3992,7 @@
       </c>
       <c r="I14" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001b2#0001</v>
+        <v>obj_001ca#0005</v>
       </c>
       <c r="J14" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I14,Trigger),"--")</f>
@@ -3997,7 +4000,7 @@
       </c>
       <c r="K14" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I14,Trigger),"--")</f>
-        <v>6.249999999999999E-4</v>
+        <v>-7.3749999999999998E-4</v>
       </c>
       <c r="L14" s="108" t="b">
         <v>1</v>
@@ -4010,18 +4013,18 @@
       </c>
       <c r="O14" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I14,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P14" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I14,Trigger),"--")</f>
-        <v>42464</v>
+        <v>42633</v>
       </c>
       <c r="R14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="S14" s="4" t="str">
-        <v>obj_001ba</v>
+        <v>obj_001cb</v>
       </c>
       <c r="T14" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S14,Trigger),"")</f>
@@ -4029,7 +4032,7 @@
       </c>
       <c r="U14" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S14,Trigger),"")</f>
-        <v>7.7499999999999997E-4</v>
+        <v>-2.1499999999999996E-3</v>
       </c>
       <c r="V14" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S14)),_xll.qlSwapRateHelperSpread($S14))</f>
@@ -4037,21 +4040,21 @@
       </c>
       <c r="W14" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S14,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X14" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S14,Trigger),"")</f>
-        <v>43740</v>
+        <v>43908</v>
       </c>
       <c r="Y14" s="84">
-        <v>0.99689866896025081</v>
+        <v>1.0086508300971126</v>
       </c>
       <c r="AA14" s="191">
         <v>4</v>
       </c>
       <c r="AB14" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AB13,"1m","mf",TRUE),Trigger)</f>
-        <v>42398</v>
+        <v>42551</v>
       </c>
       <c r="AC14" s="192" t="str">
         <f t="shared" si="7"/>
@@ -4059,7 +4062,7 @@
       </c>
       <c r="AD14" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AB14,_xll.qlCalendarAdvance(Calendar,AB14,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AE14" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AC14,Trigger),_xll.qlQuoteValue(AC14,Trigger),1)</f>
@@ -4096,7 +4099,7 @@
       </c>
       <c r="F15" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C15,B15,E15,$D15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ae#0001</v>
+        <v>obj_001d6#0005</v>
       </c>
       <c r="G15" s="53"/>
       <c r="H15" s="11" t="str">
@@ -4137,7 +4140,7 @@
         <v>OIS</v>
       </c>
       <c r="S15" s="4" t="str">
-        <v>obj_001b7</v>
+        <v>obj_001bd</v>
       </c>
       <c r="T15" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S15,Trigger),"")</f>
@@ -4145,7 +4148,7 @@
       </c>
       <c r="U15" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S15,Trigger),"")</f>
-        <v>1.175E-3</v>
+        <v>-1.8374999999999997E-3</v>
       </c>
       <c r="V15" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S15)),_xll.qlSwapRateHelperSpread($S15))</f>
@@ -4153,21 +4156,21 @@
       </c>
       <c r="W15" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S15,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X15" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S15,Trigger),"")</f>
-        <v>44106</v>
+        <v>44273</v>
       </c>
       <c r="Y15" s="84">
-        <v>0.99412871820767701</v>
+        <v>1.0092479351855816</v>
       </c>
       <c r="AA15" s="191">
         <v>5</v>
       </c>
       <c r="AB15" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AB14,"1m","mf",TRUE),Trigger)</f>
-        <v>42429</v>
+        <v>42580</v>
       </c>
       <c r="AC15" s="192" t="str">
         <f t="shared" si="7"/>
@@ -4175,7 +4178,7 @@
       </c>
       <c r="AD15" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AB15,_xll.qlCalendarAdvance(Calendar,AB15,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AE15" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AC15,Trigger),_xll.qlQuoteValue(AC15,Trigger),1)</f>
@@ -4212,7 +4215,7 @@
       </c>
       <c r="F16" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C16,B16,E16,$D16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001b2#0001</v>
+        <v>obj_001ca#0005</v>
       </c>
       <c r="G16" s="53"/>
       <c r="H16" s="11" t="str">
@@ -4253,7 +4256,7 @@
         <v>OIS</v>
       </c>
       <c r="S16" s="4" t="str">
-        <v>obj_001a7</v>
+        <v>obj_001da</v>
       </c>
       <c r="T16" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S16,Trigger),"")</f>
@@ -4261,7 +4264,7 @@
       </c>
       <c r="U16" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S16,Trigger),"")</f>
-        <v>1.6499999999999998E-3</v>
+        <v>-1.4624999999999998E-3</v>
       </c>
       <c r="V16" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S16)),_xll.qlSwapRateHelperSpread($S16))</f>
@@ -4269,21 +4272,21 @@
       </c>
       <c r="W16" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S16,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X16" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S16,Trigger),"")</f>
-        <v>44473</v>
+        <v>44638</v>
       </c>
       <c r="Y16" s="84">
-        <v>0.99011417726549966</v>
+        <v>1.0088360243045109</v>
       </c>
       <c r="AA16" s="191">
         <v>6</v>
       </c>
       <c r="AB16" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AB15,"1m","mf",TRUE),Trigger)</f>
-        <v>42460</v>
+        <v>42613</v>
       </c>
       <c r="AC16" s="192" t="str">
         <f t="shared" si="7"/>
@@ -4334,7 +4337,7 @@
       </c>
       <c r="I17" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001c2#0001</v>
+        <v>obj_001cc#0005</v>
       </c>
       <c r="J17" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I17,Trigger),"--")</f>
@@ -4342,7 +4345,7 @@
       </c>
       <c r="K17" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I17,Trigger),"--")</f>
-        <v>5.7499999999999999E-4</v>
+        <v>-1.0624999999999999E-3</v>
       </c>
       <c r="L17" s="108" t="b">
         <v>1</v>
@@ -4355,18 +4358,18 @@
       </c>
       <c r="O17" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I17,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P17" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I17,Trigger),"--")</f>
-        <v>42555</v>
+        <v>42723</v>
       </c>
       <c r="R17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="S17" s="4" t="str">
-        <v>obj_001bc</v>
+        <v>obj_001d4</v>
       </c>
       <c r="T17" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S17,Trigger),"")</f>
@@ -4374,7 +4377,7 @@
       </c>
       <c r="U17" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S17,Trigger),"")</f>
-        <v>2.1749999999999999E-3</v>
+        <v>-1.0875000000000001E-3</v>
       </c>
       <c r="V17" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S17)),_xll.qlSwapRateHelperSpread($S17))</f>
@@ -4382,21 +4385,21 @@
       </c>
       <c r="W17" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S17,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X17" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S17,Trigger),"")</f>
-        <v>44837</v>
+        <v>45005</v>
       </c>
       <c r="Y17" s="84">
-        <v>0.98483379946081295</v>
+        <v>1.0076722253960637</v>
       </c>
       <c r="AA17" s="191">
         <v>7</v>
       </c>
       <c r="AB17" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AB16,"1m","mf",TRUE),Trigger)</f>
-        <v>42489</v>
+        <v>42643</v>
       </c>
       <c r="AC17" s="192" t="str">
         <f t="shared" si="7"/>
@@ -4404,7 +4407,7 @@
       </c>
       <c r="AD17" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AB17,_xll.qlCalendarAdvance(Calendar,AB17,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AE17" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AC17,Trigger),_xll.qlQuoteValue(AC17,Trigger),1)</f>
@@ -4479,7 +4482,7 @@
         <v>OIS</v>
       </c>
       <c r="S18" s="4" t="str">
-        <v>obj_001be</v>
+        <v>obj_001dd</v>
       </c>
       <c r="T18" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S18,Trigger),"")</f>
@@ -4487,7 +4490,7 @@
       </c>
       <c r="U18" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S18,Trigger),"")</f>
-        <v>2.7000000000000001E-3</v>
+        <v>-6.8749999999999996E-4</v>
       </c>
       <c r="V18" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S18)),_xll.qlSwapRateHelperSpread($S18))</f>
@@ -4495,21 +4498,21 @@
       </c>
       <c r="W18" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S18,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X18" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S18,Trigger),"")</f>
-        <v>45201</v>
+        <v>45369</v>
       </c>
       <c r="Y18" s="84">
-        <v>0.97853912829904111</v>
+        <v>1.0055396722238301</v>
       </c>
       <c r="AA18" s="191">
         <v>8</v>
       </c>
       <c r="AB18" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AB17,"1m","mf",TRUE),Trigger)</f>
-        <v>42521</v>
+        <v>42674</v>
       </c>
       <c r="AC18" s="192" t="str">
         <f t="shared" si="7"/>
@@ -4554,7 +4557,7 @@
       </c>
       <c r="F19" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C19,B19,E19,$D19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001c2#0001</v>
+        <v>obj_001cc#0005</v>
       </c>
       <c r="G19" s="53"/>
       <c r="H19" s="11" t="str">
@@ -4595,7 +4598,7 @@
         <v>OIS</v>
       </c>
       <c r="S19" s="4" t="str">
-        <v>obj_001b0</v>
+        <v>obj_001bc</v>
       </c>
       <c r="T19" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S19,Trigger),"")</f>
@@ -4603,7 +4606,7 @@
       </c>
       <c r="U19" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S19,Trigger),"")</f>
-        <v>3.2750000000000001E-3</v>
+        <v>-3.5000000000000005E-4</v>
       </c>
       <c r="V19" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S19)),_xll.qlSwapRateHelperSpread($S19))</f>
@@ -4611,21 +4614,21 @@
       </c>
       <c r="W19" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S19,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X19" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S19,Trigger),"")</f>
-        <v>45567</v>
+        <v>45734</v>
       </c>
       <c r="Y19" s="84">
-        <v>0.97078157817845123</v>
+        <v>1.0031713070741055</v>
       </c>
       <c r="AA19" s="191">
         <v>9</v>
       </c>
       <c r="AB19" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AB18,"1m","mf",TRUE),Trigger)</f>
-        <v>42551</v>
+        <v>42704</v>
       </c>
       <c r="AC19" s="192" t="str">
         <f t="shared" si="7"/>
@@ -4676,7 +4679,7 @@
       </c>
       <c r="I20" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001c9#0001</v>
+        <v>obj_001cd#0005</v>
       </c>
       <c r="J20" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I20,Trigger),"--")</f>
@@ -4684,7 +4687,7 @@
       </c>
       <c r="K20" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I20,Trigger),"--")</f>
-        <v>5.2499999999999997E-4</v>
+        <v>-1.3500000000000001E-3</v>
       </c>
       <c r="L20" s="108" t="b">
         <v>1</v>
@@ -4697,18 +4700,18 @@
       </c>
       <c r="O20" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I20,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P20" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I20,Trigger),"--")</f>
-        <v>42646</v>
+        <v>42815</v>
       </c>
       <c r="R20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>OIS</v>
       </c>
       <c r="S20" s="4" t="str">
-        <v>obj_001aa</v>
+        <v>obj_001c5</v>
       </c>
       <c r="T20" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S20,Trigger),"")</f>
@@ -4716,7 +4719,7 @@
       </c>
       <c r="U20" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S20,Trigger),"")</f>
-        <v>3.875E-3</v>
+        <v>4.9999999999999975E-5</v>
       </c>
       <c r="V20" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S20)),_xll.qlSwapRateHelperSpread($S20))</f>
@@ -4724,21 +4727,21 @@
       </c>
       <c r="W20" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S20,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X20" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S20,Trigger),"")</f>
-        <v>45932</v>
+        <v>46099</v>
       </c>
       <c r="Y20" s="84">
-        <v>0.96170271019158415</v>
+        <v>0.99949698209363691</v>
       </c>
       <c r="AA20" s="191">
         <v>10</v>
       </c>
       <c r="AB20" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AB19,"1m","mf",TRUE),Trigger)</f>
-        <v>42580</v>
+        <v>42734</v>
       </c>
       <c r="AC20" s="192" t="str">
         <f t="shared" si="7"/>
@@ -4746,7 +4749,7 @@
       </c>
       <c r="AD20" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AB20,_xll.qlCalendarAdvance(Calendar,AB20,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="AE20" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AC20,Trigger),_xll.qlQuoteValue(AC20,Trigger),1)</f>
@@ -4821,7 +4824,7 @@
         <v>OIS</v>
       </c>
       <c r="S21" s="4" t="str">
-        <v>obj_001c6</v>
+        <v>obj_001bf</v>
       </c>
       <c r="T21" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S21,Trigger),"")</f>
@@ -4829,7 +4832,7 @@
       </c>
       <c r="U21" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S21,Trigger),"")</f>
-        <v>5.1749999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="V21" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S21)),_xll.qlSwapRateHelperSpread($S21))</f>
@@ -4837,21 +4840,21 @@
       </c>
       <c r="W21" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S21,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X21" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S21,Trigger),"")</f>
-        <v>46664</v>
+        <v>46833</v>
       </c>
       <c r="Y21" s="84">
-        <v>0.93904706964424089</v>
+        <v>0.98915035514013072</v>
       </c>
       <c r="AA21" s="191">
         <v>11</v>
       </c>
       <c r="AB21" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AB20,"1m","mf",TRUE),Trigger)</f>
-        <v>42613</v>
+        <v>42766</v>
       </c>
       <c r="AC21" s="192" t="str">
         <f t="shared" si="7"/>
@@ -4896,7 +4899,7 @@
       </c>
       <c r="F22" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C22,B22,E22,$D22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001c9#0001</v>
+        <v>obj_001cd#0005</v>
       </c>
       <c r="H22" s="11" t="str">
         <f t="shared" si="2"/>
@@ -4936,7 +4939,7 @@
         <v>OIS</v>
       </c>
       <c r="S22" s="4" t="str">
-        <v>obj_001c4</v>
+        <v>obj_001d5</v>
       </c>
       <c r="T22" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S22,Trigger),"")</f>
@@ -4944,7 +4947,7 @@
       </c>
       <c r="U22" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S22,Trigger),"")</f>
-        <v>7.324999999999999E-3</v>
+        <v>2.1624999999999999E-3</v>
       </c>
       <c r="V22" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S22)),_xll.qlSwapRateHelperSpread($S22))</f>
@@ -4952,21 +4955,21 @@
       </c>
       <c r="W22" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S22,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X22" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S22,Trigger),"")</f>
-        <v>47758</v>
+        <v>47925</v>
       </c>
       <c r="Y22" s="84">
-        <v>0.89375534568445458</v>
+        <v>0.96762106934207948</v>
       </c>
       <c r="AA22" s="191">
         <v>12</v>
       </c>
       <c r="AB22" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AB21,"1m","mf",TRUE),Trigger)</f>
-        <v>42643</v>
+        <v>42794</v>
       </c>
       <c r="AC22" s="192" t="str">
         <f t="shared" si="7"/>
@@ -4974,7 +4977,7 @@
       </c>
       <c r="AD22" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AB22,_xll.qlCalendarAdvance(Calendar,AB22,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AE22" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AC22,Trigger),_xll.qlQuoteValue(AC22,Trigger),1)</f>
@@ -5048,7 +5051,7 @@
         <v>OIS</v>
       </c>
       <c r="S23" s="4" t="str">
-        <v>obj_001ad</v>
+        <v>obj_001d2</v>
       </c>
       <c r="T23" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S23,Trigger),"")</f>
@@ -5056,7 +5059,7 @@
       </c>
       <c r="U23" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S23,Trigger),"")</f>
-        <v>1.0049999999999998E-2</v>
+        <v>3.875E-3</v>
       </c>
       <c r="V23" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S23)),_xll.qlSwapRateHelperSpread($S23))</f>
@@ -5064,21 +5067,21 @@
       </c>
       <c r="W23" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S23,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X23" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S23,Trigger),"")</f>
-        <v>49584</v>
+        <v>49752</v>
       </c>
       <c r="Y23" s="84">
-        <v>0.8117842307917521</v>
+        <v>0.92371667392247037</v>
       </c>
       <c r="AA23" s="197">
         <v>13</v>
       </c>
       <c r="AB23" s="198">
         <f>_xll.qlCalendarAdjust(Calendar,DATE(YEAR(AB11)+1,12,31),"preceding",Trigger)</f>
-        <v>42734</v>
+        <v>43098</v>
       </c>
       <c r="AC23" s="198" t="str">
         <f t="shared" si="7"/>
@@ -5168,7 +5171,7 @@
       </c>
       <c r="U24" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S24,Trigger),"")</f>
-        <v>1.1524999999999999E-2</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="V24" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S24)),_xll.qlSwapRateHelperSpread($S24))</f>
@@ -5176,14 +5179,14 @@
       </c>
       <c r="W24" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S24,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X24" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S24,Trigger),"")</f>
-        <v>51411</v>
+        <v>51578</v>
       </c>
       <c r="Y24" s="84">
-        <v>0.7398774123872861</v>
+        <v>0.88152603022789633</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5244,7 +5247,7 @@
         <v>OIS</v>
       </c>
       <c r="S25" s="4" t="str">
-        <v>obj_001b4</v>
+        <v>obj_001d3</v>
       </c>
       <c r="T25" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(S25,Trigger),"")</f>
@@ -5252,7 +5255,7 @@
       </c>
       <c r="U25" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(S25,Trigger),"")</f>
-        <v>1.2324999999999999E-2</v>
+        <v>5.45E-3</v>
       </c>
       <c r="V25" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($S25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($S25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($S25)),_xll.qlSwapRateHelperSpread($S25))</f>
@@ -5260,14 +5263,14 @@
       </c>
       <c r="W25" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(S25,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="X25" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(S25,Trigger),"")</f>
-        <v>53237</v>
+        <v>53405</v>
       </c>
       <c r="Y25" s="84">
-        <v>0.67851064184822041</v>
+        <v>0.84479032407989563</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5296,7 +5299,7 @@
       </c>
       <c r="I26" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001b6#0001</v>
+        <v>obj_001dc#0005</v>
       </c>
       <c r="J26" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I26,Trigger),"--")</f>
@@ -5304,7 +5307,7 @@
       </c>
       <c r="K26" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I26,Trigger),"--")</f>
-        <v>4.75E-4</v>
+        <v>-1.7625000000000002E-3</v>
       </c>
       <c r="L26" s="108" t="b">
         <v>1</v>
@@ -5317,11 +5320,11 @@
       </c>
       <c r="O26" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I26,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P26" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I26,Trigger),"--")</f>
-        <v>42828</v>
+        <v>42997</v>
       </c>
       <c r="R26" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5459,7 +5462,7 @@
       </c>
       <c r="F28" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C28,B28,E28,$D28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001b6#0001</v>
+        <v>obj_001dc#0005</v>
       </c>
       <c r="H28" s="11" t="str">
         <f t="shared" si="2"/>
@@ -5803,7 +5806,7 @@
       </c>
       <c r="I32" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001b9#0001</v>
+        <v>obj_001c6#0005</v>
       </c>
       <c r="J32" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I32,Trigger),"--")</f>
@@ -5811,7 +5814,7 @@
       </c>
       <c r="K32" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I32,Trigger),"--")</f>
-        <v>4.4999999999999999E-4</v>
+        <v>-2.0874999999999999E-3</v>
       </c>
       <c r="L32" s="108" t="b">
         <v>1</v>
@@ -5824,11 +5827,11 @@
       </c>
       <c r="O32" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I32,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P32" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I32,Trigger),"--")</f>
-        <v>43010</v>
+        <v>43178</v>
       </c>
       <c r="R32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -5966,7 +5969,7 @@
       </c>
       <c r="F34" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C34,B34,E34,$D34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001b9#0001</v>
+        <v>obj_001c6#0005</v>
       </c>
       <c r="H34" s="11" t="str">
         <f t="shared" si="2"/>
@@ -6142,7 +6145,7 @@
       </c>
       <c r="I36" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001c1#0001</v>
+        <v>obj_001c7#0005</v>
       </c>
       <c r="J36" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I36,Trigger),"--")</f>
@@ -6150,7 +6153,7 @@
       </c>
       <c r="K36" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I36,Trigger),"--")</f>
-        <v>5.2499999999999986E-4</v>
+        <v>-2.2249999999999995E-3</v>
       </c>
       <c r="L36" s="108" t="b">
         <v>1</v>
@@ -6163,11 +6166,11 @@
       </c>
       <c r="O36" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I36,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P36" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I36,Trigger),"--")</f>
-        <v>43375</v>
+        <v>43542</v>
       </c>
       <c r="R36" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6305,7 +6308,7 @@
       </c>
       <c r="F38" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C38,B38,E38,$D38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001c1#0001</v>
+        <v>obj_001c7#0005</v>
       </c>
       <c r="H38" s="11" t="str">
         <f t="shared" ref="H38:H55" si="11">A40</f>
@@ -6481,7 +6484,7 @@
       </c>
       <c r="I40" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001ba#0001</v>
+        <v>obj_001cb#0005</v>
       </c>
       <c r="J40" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I40,Trigger),"--")</f>
@@ -6489,7 +6492,7 @@
       </c>
       <c r="K40" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I40,Trigger),"--")</f>
-        <v>7.7499999999999997E-4</v>
+        <v>-2.1499999999999996E-3</v>
       </c>
       <c r="L40" s="108" t="b">
         <v>1</v>
@@ -6502,11 +6505,11 @@
       </c>
       <c r="O40" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I40,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P40" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I40,Trigger),"--")</f>
-        <v>43740</v>
+        <v>43908</v>
       </c>
       <c r="R40" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6644,7 +6647,7 @@
       </c>
       <c r="F42" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C42,B42,E42,$D42,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ba#0001</v>
+        <v>obj_001cb#0005</v>
       </c>
       <c r="H42" s="11" t="str">
         <f t="shared" si="11"/>
@@ -6820,7 +6823,7 @@
       </c>
       <c r="I44" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001b7#0001</v>
+        <v>obj_001bd#0005</v>
       </c>
       <c r="J44" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I44,Trigger),"--")</f>
@@ -6828,7 +6831,7 @@
       </c>
       <c r="K44" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I44,Trigger),"--")</f>
-        <v>1.175E-3</v>
+        <v>-1.8374999999999997E-3</v>
       </c>
       <c r="L44" s="108" t="b">
         <v>1</v>
@@ -6841,11 +6844,11 @@
       </c>
       <c r="O44" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I44,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P44" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I44,Trigger),"--")</f>
-        <v>44106</v>
+        <v>44273</v>
       </c>
       <c r="R44" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6904,7 +6907,7 @@
       </c>
       <c r="I45" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001a7#0001</v>
+        <v>obj_001da#0005</v>
       </c>
       <c r="J45" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I45,Trigger),"--")</f>
@@ -6912,7 +6915,7 @@
       </c>
       <c r="K45" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I45,Trigger),"--")</f>
-        <v>1.6499999999999998E-3</v>
+        <v>-1.4624999999999998E-3</v>
       </c>
       <c r="L45" s="108" t="b">
         <v>1</v>
@@ -6925,11 +6928,11 @@
       </c>
       <c r="O45" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I45,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P45" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I45,Trigger),"--")</f>
-        <v>44473</v>
+        <v>44638</v>
       </c>
       <c r="R45" s="4" t="str">
         <f t="shared" si="1"/>
@@ -6983,7 +6986,7 @@
       </c>
       <c r="F46" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C46,B46,E46,$D46,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001b7#0001</v>
+        <v>obj_001bd#0005</v>
       </c>
       <c r="H46" s="11" t="str">
         <f t="shared" si="11"/>
@@ -6991,7 +6994,7 @@
       </c>
       <c r="I46" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001bc#0001</v>
+        <v>obj_001d4#0005</v>
       </c>
       <c r="J46" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I46,Trigger),"--")</f>
@@ -6999,7 +7002,7 @@
       </c>
       <c r="K46" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I46,Trigger),"--")</f>
-        <v>2.1749999999999999E-3</v>
+        <v>-1.0875000000000001E-3</v>
       </c>
       <c r="L46" s="108" t="b">
         <v>1</v>
@@ -7012,11 +7015,11 @@
       </c>
       <c r="O46" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I46,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P46" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I46,Trigger),"--")</f>
-        <v>44837</v>
+        <v>45005</v>
       </c>
       <c r="R46" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7070,7 +7073,7 @@
       </c>
       <c r="F47" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C47,B47,E47,$D47,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001a7#0001</v>
+        <v>obj_001da#0005</v>
       </c>
       <c r="H47" s="11" t="str">
         <f t="shared" si="11"/>
@@ -7078,7 +7081,7 @@
       </c>
       <c r="I47" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001be#0001</v>
+        <v>obj_001dd#0005</v>
       </c>
       <c r="J47" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I47,Trigger),"--")</f>
@@ -7086,7 +7089,7 @@
       </c>
       <c r="K47" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I47,Trigger),"--")</f>
-        <v>2.7000000000000001E-3</v>
+        <v>-6.8749999999999996E-4</v>
       </c>
       <c r="L47" s="108" t="b">
         <v>1</v>
@@ -7099,11 +7102,11 @@
       </c>
       <c r="O47" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I47,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P47" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I47,Trigger),"--")</f>
-        <v>45201</v>
+        <v>45369</v>
       </c>
       <c r="R47" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7157,7 +7160,7 @@
       </c>
       <c r="F48" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C48,B48,E48,$D48,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001bc#0001</v>
+        <v>obj_001d4#0005</v>
       </c>
       <c r="H48" s="11" t="str">
         <f t="shared" si="11"/>
@@ -7165,7 +7168,7 @@
       </c>
       <c r="I48" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001b0#0001</v>
+        <v>obj_001bc#0005</v>
       </c>
       <c r="J48" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I48,Trigger),"--")</f>
@@ -7173,7 +7176,7 @@
       </c>
       <c r="K48" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I48,Trigger),"--")</f>
-        <v>3.2750000000000001E-3</v>
+        <v>-3.5000000000000005E-4</v>
       </c>
       <c r="L48" s="108" t="b">
         <v>1</v>
@@ -7186,11 +7189,11 @@
       </c>
       <c r="O48" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I48,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P48" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I48,Trigger),"--")</f>
-        <v>45567</v>
+        <v>45734</v>
       </c>
       <c r="R48" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7244,7 +7247,7 @@
       </c>
       <c r="F49" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C49,B49,E49,$D49,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001be#0001</v>
+        <v>obj_001dd#0005</v>
       </c>
       <c r="H49" s="11" t="str">
         <f t="shared" si="11"/>
@@ -7252,7 +7255,7 @@
       </c>
       <c r="I49" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001aa#0001</v>
+        <v>obj_001c5#0005</v>
       </c>
       <c r="J49" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I49,Trigger),"--")</f>
@@ -7260,7 +7263,7 @@
       </c>
       <c r="K49" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I49,Trigger),"--")</f>
-        <v>3.875E-3</v>
+        <v>4.9999999999999975E-5</v>
       </c>
       <c r="L49" s="108" t="b">
         <v>1</v>
@@ -7273,11 +7276,11 @@
       </c>
       <c r="O49" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I49,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P49" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I49,Trigger),"--")</f>
-        <v>45932</v>
+        <v>46099</v>
       </c>
       <c r="R49" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7331,7 +7334,7 @@
       </c>
       <c r="F50" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C50,B50,E50,$D50,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001b0#0001</v>
+        <v>obj_001bc#0005</v>
       </c>
       <c r="H50" s="11" t="str">
         <f t="shared" si="11"/>
@@ -7339,7 +7342,7 @@
       </c>
       <c r="I50" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001c6#0001</v>
+        <v>obj_001bf#0005</v>
       </c>
       <c r="J50" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I50,Trigger),"--")</f>
@@ -7347,7 +7350,7 @@
       </c>
       <c r="K50" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I50,Trigger),"--")</f>
-        <v>5.1749999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="L50" s="108" t="b">
         <v>1</v>
@@ -7360,11 +7363,11 @@
       </c>
       <c r="O50" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I50,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P50" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I50,Trigger),"--")</f>
-        <v>46664</v>
+        <v>46833</v>
       </c>
       <c r="R50" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7418,7 +7421,7 @@
       </c>
       <c r="F51" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C51,B51,E51,$D51,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001aa#0001</v>
+        <v>obj_001c5#0005</v>
       </c>
       <c r="H51" s="11" t="str">
         <f t="shared" si="11"/>
@@ -7426,7 +7429,7 @@
       </c>
       <c r="I51" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001c4#0001</v>
+        <v>obj_001d5#0005</v>
       </c>
       <c r="J51" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I51,Trigger),"--")</f>
@@ -7434,7 +7437,7 @@
       </c>
       <c r="K51" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I51,Trigger),"--")</f>
-        <v>7.324999999999999E-3</v>
+        <v>2.1624999999999999E-3</v>
       </c>
       <c r="L51" s="108" t="b">
         <v>1</v>
@@ -7447,11 +7450,11 @@
       </c>
       <c r="O51" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I51,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P51" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I51,Trigger),"--")</f>
-        <v>47758</v>
+        <v>47925</v>
       </c>
       <c r="R51" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7505,7 +7508,7 @@
       </c>
       <c r="F52" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C52,B52,E52,$D52,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001c6#0001</v>
+        <v>obj_001bf#0005</v>
       </c>
       <c r="H52" s="11" t="str">
         <f t="shared" si="11"/>
@@ -7513,7 +7516,7 @@
       </c>
       <c r="I52" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001ad#0001</v>
+        <v>obj_001d2#0005</v>
       </c>
       <c r="J52" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I52,Trigger),"--")</f>
@@ -7521,7 +7524,7 @@
       </c>
       <c r="K52" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I52,Trigger),"--")</f>
-        <v>1.0049999999999998E-2</v>
+        <v>3.875E-3</v>
       </c>
       <c r="L52" s="108" t="b">
         <v>1</v>
@@ -7534,11 +7537,11 @@
       </c>
       <c r="O52" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I52,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P52" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I52,Trigger),"--")</f>
-        <v>49584</v>
+        <v>49752</v>
       </c>
       <c r="R52" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7592,7 +7595,7 @@
       </c>
       <c r="F53" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C53,B53,E53,$D53,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001c4#0001</v>
+        <v>obj_001d5#0005</v>
       </c>
       <c r="H53" s="11" t="str">
         <f t="shared" si="11"/>
@@ -7600,7 +7603,7 @@
       </c>
       <c r="I53" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001c8#0001</v>
+        <v>obj_001c8#0005</v>
       </c>
       <c r="J53" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I53,Trigger),"--")</f>
@@ -7608,7 +7611,7 @@
       </c>
       <c r="K53" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I53,Trigger),"--")</f>
-        <v>1.1524999999999999E-2</v>
+        <v>4.9000000000000007E-3</v>
       </c>
       <c r="L53" s="108" t="b">
         <v>1</v>
@@ -7621,11 +7624,11 @@
       </c>
       <c r="O53" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I53,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P53" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I53,Trigger),"--")</f>
-        <v>51411</v>
+        <v>51578</v>
       </c>
       <c r="R53" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7679,7 +7682,7 @@
       </c>
       <c r="F54" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C54,B54,E54,$D54,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ad#0001</v>
+        <v>obj_001d2#0005</v>
       </c>
       <c r="H54" s="11" t="str">
         <f t="shared" si="11"/>
@@ -7766,7 +7769,7 @@
       </c>
       <c r="F55" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C55,B55,E55,$D55,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001c8#0001</v>
+        <v>obj_001c8#0005</v>
       </c>
       <c r="H55" s="11" t="str">
         <f t="shared" si="11"/>
@@ -7774,7 +7777,7 @@
       </c>
       <c r="I55" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001b4#0001</v>
+        <v>obj_001d3#0005</v>
       </c>
       <c r="J55" s="108" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(I55,Trigger),"--")</f>
@@ -7782,7 +7785,7 @@
       </c>
       <c r="K55" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($I55,Trigger),"--")</f>
-        <v>1.2324999999999999E-2</v>
+        <v>5.45E-3</v>
       </c>
       <c r="L55" s="108" t="b">
         <v>1</v>
@@ -7795,11 +7798,11 @@
       </c>
       <c r="O55" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(I55,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="P55" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(I55,Trigger),"--")</f>
-        <v>53237</v>
+        <v>53405</v>
       </c>
       <c r="R55" s="4" t="str">
         <f t="shared" si="1"/>
@@ -7937,7 +7940,7 @@
       </c>
       <c r="F57" s="70" t="str">
         <f>_xll.qlOISRateHelper(,C57,B57,E57,$D57,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001b4#0001</v>
+        <v>obj_001d3#0005</v>
       </c>
       <c r="H57" s="11" t="str">
         <f t="shared" si="14"/>
@@ -8251,7 +8254,7 @@
   <dimension ref="A1:AM90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8476,7 +8479,7 @@
       </c>
       <c r="W3" s="4" t="str">
         <f t="array" ref="W3:W79">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AJ$3,$AJ$4,$AJ$5,$AJ$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_001d2</v>
+        <v>obj_001e4</v>
       </c>
       <c r="X3" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
@@ -8484,7 +8487,7 @@
       </c>
       <c r="Y3" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v>9.1500000000000001E-4</v>
+        <v>-1.5E-5</v>
       </c>
       <c r="Z3" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
@@ -8492,14 +8495,14 @@
       </c>
       <c r="AA3" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB3" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42310</v>
+        <v>42478</v>
       </c>
       <c r="AC3" s="84">
-        <v>0.99992121454097105</v>
+        <v>1.0000012916683352</v>
       </c>
       <c r="AD3" s="184"/>
       <c r="AF3" s="203" t="s">
@@ -8571,7 +8574,7 @@
         <v>Dp</v>
       </c>
       <c r="W4" s="4" t="str">
-        <v>obj_001ca</v>
+        <v>obj_001e5</v>
       </c>
       <c r="X4" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W4,Trigger),"")</f>
@@ -8579,7 +8582,7 @@
       </c>
       <c r="Y4" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v>8.8199999999999997E-4</v>
+        <v>1.7E-5</v>
       </c>
       <c r="Z4" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
@@ -8587,14 +8590,14 @@
       </c>
       <c r="AA4" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB4" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42340</v>
+        <v>42508</v>
       </c>
       <c r="AC4" s="84">
-        <v>0.99985057233196506</v>
+        <v>0.99999711945255898</v>
       </c>
       <c r="AD4" s="184"/>
       <c r="AF4" s="118" t="s">
@@ -8620,7 +8623,7 @@
       <c r="F5" s="173"/>
       <c r="G5" s="174" t="str">
         <f>_xll.qlLibor(,Currency,C5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001cc#0001</v>
+        <v>obj_001e1#0005</v>
       </c>
       <c r="H5" s="175" t="str">
         <f t="shared" si="0"/>
@@ -8667,7 +8670,7 @@
         <v>Dp</v>
       </c>
       <c r="W5" s="4" t="str">
-        <v>obj_001d1</v>
+        <v>obj_001df</v>
       </c>
       <c r="X5" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
@@ -8675,7 +8678,7 @@
       </c>
       <c r="Y5" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v>8.4400000000000002E-4</v>
+        <v>-1.7E-5</v>
       </c>
       <c r="Z5" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
@@ -8683,14 +8686,14 @@
       </c>
       <c r="AA5" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB5" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42373</v>
+        <v>42541</v>
       </c>
       <c r="AC5" s="84">
-        <v>0.99977967077788665</v>
+        <v>1.0000044389085927</v>
       </c>
       <c r="AD5" s="184"/>
       <c r="AF5" s="118" t="s">
@@ -8716,7 +8719,7 @@
       <c r="F6" s="180"/>
       <c r="G6" s="181" t="str">
         <f>_xll.qlLibor(,Currency,C6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001cb#0001</v>
+        <v>obj_001e6#0005</v>
       </c>
       <c r="H6" s="182" t="str">
         <f t="shared" si="0"/>
@@ -8763,7 +8766,7 @@
         <v>FRA</v>
       </c>
       <c r="W6" s="4" t="str">
-        <v>obj_001b8</v>
+        <v>obj_001c2</v>
       </c>
       <c r="X6" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
@@ -8771,7 +8774,7 @@
       </c>
       <c r="Y6" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v>7.9999999999999993E-4</v>
+        <v>-1.1250000000000001E-4</v>
       </c>
       <c r="Z6" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
@@ -8779,14 +8782,14 @@
       </c>
       <c r="AA6" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42310</v>
+        <v>42478</v>
       </c>
       <c r="AB6" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42402</v>
+        <v>42569</v>
       </c>
       <c r="AC6" s="84">
-        <v>0.99971682798947092</v>
+        <v>1.0000286685070838</v>
       </c>
       <c r="AD6" s="184"/>
       <c r="AF6" s="118" t="s">
@@ -8821,7 +8824,7 @@
       <c r="I7" s="136"/>
       <c r="J7" s="70" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001d2#0001</v>
+        <v>obj_001e4#0005</v>
       </c>
       <c r="K7" s="53"/>
       <c r="L7" s="11" t="str">
@@ -8830,7 +8833,7 @@
       </c>
       <c r="M7" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001d2#0001</v>
+        <v>obj_001e4#0005</v>
       </c>
       <c r="N7" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
@@ -8838,7 +8841,7 @@
       </c>
       <c r="O7" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>9.1500000000000001E-4</v>
+        <v>-1.5E-5</v>
       </c>
       <c r="P7" s="108" t="b">
         <v>1</v>
@@ -8851,18 +8854,18 @@
       </c>
       <c r="S7" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T7" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42310</v>
+        <v>42478</v>
       </c>
       <c r="V7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W7" s="4" t="str">
-        <v>obj_001c0</v>
+        <v>obj_001c3</v>
       </c>
       <c r="X7" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
@@ -8870,7 +8873,7 @@
       </c>
       <c r="Y7" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>7.9999999999999993E-4</v>
+        <v>-3.2499999999999999E-4</v>
       </c>
       <c r="Z7" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -8878,14 +8881,14 @@
       </c>
       <c r="AA7" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42340</v>
+        <v>42508</v>
       </c>
       <c r="AB7" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42431</v>
+        <v>42600</v>
       </c>
       <c r="AC7" s="84">
-        <v>0.99964842120677189</v>
+        <v>1.0000801816676474</v>
       </c>
       <c r="AD7" s="184"/>
     </row>
@@ -8914,7 +8917,7 @@
       <c r="I8" s="136"/>
       <c r="J8" s="70" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ca#0001</v>
+        <v>obj_001e5#0005</v>
       </c>
       <c r="K8" s="53"/>
       <c r="L8" s="11" t="str">
@@ -8923,7 +8926,7 @@
       </c>
       <c r="M8" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001ca#0001</v>
+        <v>obj_001e5#0005</v>
       </c>
       <c r="N8" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
@@ -8931,7 +8934,7 @@
       </c>
       <c r="O8" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>8.8199999999999997E-4</v>
+        <v>1.7E-5</v>
       </c>
       <c r="P8" s="108" t="b">
         <v>1</v>
@@ -8944,18 +8947,18 @@
       </c>
       <c r="S8" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T8" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42340</v>
+        <v>42508</v>
       </c>
       <c r="V8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W8" s="4" t="str">
-        <v>obj_001af</v>
+        <v>obj_001db</v>
       </c>
       <c r="X8" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -8963,7 +8966,7 @@
       </c>
       <c r="Y8" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>7.9999999999999993E-4</v>
+        <v>-4.8750000000000003E-4</v>
       </c>
       <c r="Z8" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -8971,14 +8974,14 @@
       </c>
       <c r="AA8" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42373</v>
+        <v>42541</v>
       </c>
       <c r="AB8" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42464</v>
+        <v>42632</v>
       </c>
       <c r="AC8" s="84">
-        <v>0.99957753398768023</v>
+        <v>1.0001273752853779</v>
       </c>
       <c r="AD8" s="184"/>
     </row>
@@ -9007,7 +9010,7 @@
       <c r="I9" s="137"/>
       <c r="J9" s="3" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001d1#0001</v>
+        <v>obj_001df#0005</v>
       </c>
       <c r="K9" s="53"/>
       <c r="L9" s="12" t="str">
@@ -9016,7 +9019,7 @@
       </c>
       <c r="M9" s="106" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001d1#0001</v>
+        <v>obj_001df#0005</v>
       </c>
       <c r="N9" s="159" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -9024,7 +9027,7 @@
       </c>
       <c r="O9" s="112">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>8.4400000000000002E-4</v>
+        <v>-1.7E-5</v>
       </c>
       <c r="P9" s="111" t="b">
         <v>1</v>
@@ -9037,18 +9040,18 @@
       </c>
       <c r="S9" s="113">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T9" s="113">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42373</v>
+        <v>42541</v>
       </c>
       <c r="V9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W9" s="4" t="str">
-        <v>obj_001b3</v>
+        <v>obj_001cf</v>
       </c>
       <c r="X9" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
@@ -9056,7 +9059,7 @@
       </c>
       <c r="Y9" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>7.9999999999999993E-4</v>
+        <v>-6.3750000000000005E-4</v>
       </c>
       <c r="Z9" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
@@ -9064,14 +9067,14 @@
       </c>
       <c r="AA9" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42402</v>
+        <v>42569</v>
       </c>
       <c r="AB9" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42493</v>
+        <v>42661</v>
       </c>
       <c r="AC9" s="84">
-        <v>0.99951517858351779</v>
+        <v>1.0001901970739802</v>
       </c>
       <c r="AD9" s="184"/>
       <c r="AG9" s="51" t="s">
@@ -9093,7 +9096,7 @@
       </c>
       <c r="M10" s="143" t="str">
         <f>IF(ISBLANK(J12),"--",J12)</f>
-        <v>obj_001b8#0001</v>
+        <v>obj_001c2#0005</v>
       </c>
       <c r="N10" s="157" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
@@ -9101,7 +9104,7 @@
       </c>
       <c r="O10" s="145">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M10,Trigger),"--")</f>
-        <v>7.9999999999999993E-4</v>
+        <v>-1.1250000000000001E-4</v>
       </c>
       <c r="P10" s="144" t="b">
         <v>1</v>
@@ -9114,18 +9117,18 @@
       </c>
       <c r="S10" s="146">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42310</v>
+        <v>42478</v>
       </c>
       <c r="T10" s="146">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42402</v>
+        <v>42569</v>
       </c>
       <c r="V10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W10" s="4" t="str">
-        <v>obj_001a9</v>
+        <v>obj_001c0</v>
       </c>
       <c r="X10" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
@@ -9133,7 +9136,7 @@
       </c>
       <c r="Y10" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v>7.9999999999999993E-4</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="Z10" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
@@ -9141,14 +9144,14 @@
       </c>
       <c r="AA10" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42431</v>
+        <v>42600</v>
       </c>
       <c r="AB10" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>42523</v>
+        <v>42692</v>
       </c>
       <c r="AC10" s="84">
-        <v>0.99944409041491467</v>
+        <v>1.0002846843142184</v>
       </c>
       <c r="AD10" s="184"/>
       <c r="AE10" s="80" t="s">
@@ -9206,7 +9209,7 @@
       </c>
       <c r="M11" s="105" t="str">
         <f t="shared" ref="M11:M20" si="6">IF(ISBLANK(J13),"--",J13)</f>
-        <v>obj_001c0#0001</v>
+        <v>obj_001c3#0005</v>
       </c>
       <c r="N11" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
@@ -9214,7 +9217,7 @@
       </c>
       <c r="O11" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M11,Trigger),"--")</f>
-        <v>7.9999999999999993E-4</v>
+        <v>-3.2499999999999999E-4</v>
       </c>
       <c r="P11" s="108" t="b">
         <v>1</v>
@@ -9227,18 +9230,18 @@
       </c>
       <c r="S11" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42340</v>
+        <v>42508</v>
       </c>
       <c r="T11" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>42431</v>
+        <v>42600</v>
       </c>
       <c r="V11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W11" s="4" t="str">
-        <v>obj_001c3</v>
+        <v>obj_001d1</v>
       </c>
       <c r="X11" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
@@ -9246,7 +9249,7 @@
       </c>
       <c r="Y11" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v>7.5000000000000002E-4</v>
+        <v>-9.5E-4</v>
       </c>
       <c r="Z11" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
@@ -9254,14 +9257,14 @@
       </c>
       <c r="AA11" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42464</v>
+        <v>42632</v>
       </c>
       <c r="AB11" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>42555</v>
+        <v>42723</v>
       </c>
       <c r="AC11" s="84">
-        <v>0.99938806666670799</v>
+        <v>1.0003664266561856</v>
       </c>
       <c r="AD11" s="184"/>
       <c r="AE11" s="185">
@@ -9269,7 +9272,7 @@
       </c>
       <c r="AF11" s="186">
         <f>_xll.qlCalendarEndOfMonth(Calendar,Settlementdate,Trigger)</f>
-        <v>42307</v>
+        <v>42460</v>
       </c>
       <c r="AG11" s="186" t="str">
         <f t="shared" ref="AG11:AG23" si="7">Currency&amp;$AG$9&amp;AE11&amp;JumpSuffix&amp;QuoteSuffix</f>
@@ -9277,7 +9280,7 @@
       </c>
       <c r="AH11" s="187">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF11,_xll.qlCalendarAdvance(Calendar,AF11,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AI11" s="186" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG11,Trigger),_xll.qlQuoteValue(AG11,Trigger),1)</f>
@@ -9318,7 +9321,7 @@
       <c r="I12" s="136"/>
       <c r="J12" s="63" t="str">
         <f>_xll.qlFraRateHelper(,H12,B12&amp;"M",G12,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001b8#0001</v>
+        <v>obj_001c2#0005</v>
       </c>
       <c r="K12" s="53" t="s">
         <v>42</v>
@@ -9329,7 +9332,7 @@
       </c>
       <c r="M12" s="105" t="str">
         <f t="shared" si="6"/>
-        <v>obj_001af#0001</v>
+        <v>obj_001db#0005</v>
       </c>
       <c r="N12" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
@@ -9337,7 +9340,7 @@
       </c>
       <c r="O12" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M12,Trigger),"--")</f>
-        <v>7.9999999999999993E-4</v>
+        <v>-4.8750000000000003E-4</v>
       </c>
       <c r="P12" s="108" t="b">
         <v>1</v>
@@ -9350,18 +9353,18 @@
       </c>
       <c r="S12" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42373</v>
+        <v>42541</v>
       </c>
       <c r="T12" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>42464</v>
+        <v>42632</v>
       </c>
       <c r="V12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W12" s="4" t="str">
-        <v>obj_001c5</v>
+        <v>obj_001d9</v>
       </c>
       <c r="X12" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
@@ -9369,7 +9372,7 @@
       </c>
       <c r="Y12" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>7.5000000000000002E-4</v>
+        <v>-1.4250000000000001E-3</v>
       </c>
       <c r="Z12" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
@@ -9377,14 +9380,14 @@
       </c>
       <c r="AA12" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42555</v>
+        <v>42723</v>
       </c>
       <c r="AB12" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>42646</v>
+        <v>42814</v>
       </c>
       <c r="AC12" s="84">
-        <v>0.99919874794415187</v>
+        <v>1.0007263827835988</v>
       </c>
       <c r="AD12" s="184"/>
       <c r="AE12" s="191">
@@ -9392,7 +9395,7 @@
       </c>
       <c r="AF12" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF11,"1m","mf",TRUE),Trigger)</f>
-        <v>42338</v>
+        <v>42489</v>
       </c>
       <c r="AG12" s="192" t="str">
         <f t="shared" si="7"/>
@@ -9400,7 +9403,7 @@
       </c>
       <c r="AH12" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF12,_xll.qlCalendarAdvance(Calendar,AF12,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="AI12" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG12,Trigger),_xll.qlQuoteValue(AG12,Trigger),1)</f>
@@ -9441,7 +9444,7 @@
       <c r="I13" s="136"/>
       <c r="J13" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H13,B13&amp;"M",G13,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001c0#0001</v>
+        <v>obj_001c3#0005</v>
       </c>
       <c r="K13" s="53"/>
       <c r="L13" s="11" t="str">
@@ -9450,7 +9453,7 @@
       </c>
       <c r="M13" s="105" t="str">
         <f t="shared" si="6"/>
-        <v>obj_001b3#0001</v>
+        <v>obj_001cf#0005</v>
       </c>
       <c r="N13" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
@@ -9458,7 +9461,7 @@
       </c>
       <c r="O13" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M13,Trigger),"--")</f>
-        <v>7.9999999999999993E-4</v>
+        <v>-6.3750000000000005E-4</v>
       </c>
       <c r="P13" s="108" t="b">
         <v>1</v>
@@ -9471,18 +9474,18 @@
       </c>
       <c r="S13" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
-        <v>42402</v>
+        <v>42569</v>
       </c>
       <c r="T13" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
-        <v>42493</v>
+        <v>42661</v>
       </c>
       <c r="V13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W13" s="4" t="str">
-        <v>obj_001bd</v>
+        <v>obj_001d8</v>
       </c>
       <c r="X13" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
@@ -9490,7 +9493,7 @@
       </c>
       <c r="Y13" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>7.5000000000000002E-4</v>
+        <v>-1.6125E-3</v>
       </c>
       <c r="Z13" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -9498,14 +9501,14 @@
       </c>
       <c r="AA13" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42646</v>
+        <v>42814</v>
       </c>
       <c r="AB13" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>42738</v>
+        <v>42905</v>
       </c>
       <c r="AC13" s="84">
-        <v>0.99900720019493039</v>
+        <v>1.0011342414234974</v>
       </c>
       <c r="AD13" s="184"/>
       <c r="AE13" s="191">
@@ -9513,7 +9516,7 @@
       </c>
       <c r="AF13" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF12,"1m","mf",TRUE),Trigger)</f>
-        <v>42369</v>
+        <v>42521</v>
       </c>
       <c r="AG13" s="192" t="str">
         <f t="shared" si="7"/>
@@ -9521,7 +9524,7 @@
       </c>
       <c r="AH13" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF13,_xll.qlCalendarAdvance(Calendar,AF13,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AI13" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG13,Trigger),_xll.qlQuoteValue(AG13,Trigger),1)</f>
@@ -9562,7 +9565,7 @@
       <c r="I14" s="136"/>
       <c r="J14" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H14,B14&amp;"M",G14,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001af#0001</v>
+        <v>obj_001db#0005</v>
       </c>
       <c r="K14" s="53"/>
       <c r="L14" s="11" t="str">
@@ -9571,7 +9574,7 @@
       </c>
       <c r="M14" s="105" t="str">
         <f t="shared" si="6"/>
-        <v>obj_001a9#0001</v>
+        <v>obj_001c0#0005</v>
       </c>
       <c r="N14" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M14,Trigger),"--")</f>
@@ -9579,7 +9582,7 @@
       </c>
       <c r="O14" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M14,Trigger),"--")</f>
-        <v>7.9999999999999993E-4</v>
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="P14" s="108" t="b">
         <v>1</v>
@@ -9592,41 +9595,41 @@
       </c>
       <c r="S14" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M14,Trigger),"--")</f>
-        <v>42431</v>
+        <v>42600</v>
       </c>
       <c r="T14" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M14,Trigger),"--")</f>
-        <v>42523</v>
+        <v>42692</v>
       </c>
       <c r="V14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>FRA</v>
+        <v>BasSW</v>
       </c>
       <c r="W14" s="4" t="str">
-        <v>obj_001bf</v>
+        <v>obj_001ea</v>
       </c>
       <c r="X14" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
-        <v>JPY15x18F_Quote</v>
+        <v>JPYSB6L2Y_Quote</v>
       </c>
       <c r="Y14" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>7.000000000000001E-4</v>
-      </c>
-      <c r="Z14" s="115" t="str">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+      <c r="Z14" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
-        <v/>
+        <v>3.3750000000000002E-4</v>
       </c>
       <c r="AA14" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42738</v>
+        <v>42447</v>
       </c>
       <c r="AB14" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>42828</v>
+        <v>43178</v>
       </c>
       <c r="AC14" s="84">
-        <v>0.99883223643008834</v>
+        <v>1.0024902955340764</v>
       </c>
       <c r="AD14" s="184"/>
       <c r="AE14" s="191">
@@ -9634,7 +9637,7 @@
       </c>
       <c r="AF14" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF13,"1m","mf",TRUE),Trigger)</f>
-        <v>42398</v>
+        <v>42551</v>
       </c>
       <c r="AG14" s="192" t="str">
         <f t="shared" si="7"/>
@@ -9642,7 +9645,7 @@
       </c>
       <c r="AH14" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF14,_xll.qlCalendarAdvance(Calendar,AF14,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AI14" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG14,Trigger),_xll.qlQuoteValue(AG14,Trigger),1)</f>
@@ -9683,7 +9686,7 @@
       <c r="I15" s="136"/>
       <c r="J15" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H15,B15&amp;"M",G15,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001b3#0001</v>
+        <v>obj_001cf#0005</v>
       </c>
       <c r="K15" s="53"/>
       <c r="L15" s="11" t="str">
@@ -9692,7 +9695,7 @@
       </c>
       <c r="M15" s="105" t="str">
         <f t="shared" si="6"/>
-        <v>obj_001c3#0001</v>
+        <v>obj_001d1#0005</v>
       </c>
       <c r="N15" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M15,Trigger),"--")</f>
@@ -9700,7 +9703,7 @@
       </c>
       <c r="O15" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M15,Trigger),"--")</f>
-        <v>7.5000000000000002E-4</v>
+        <v>-9.5E-4</v>
       </c>
       <c r="P15" s="108" t="b">
         <v>1</v>
@@ -9713,41 +9716,41 @@
       </c>
       <c r="S15" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M15,Trigger),"--")</f>
-        <v>42464</v>
+        <v>42632</v>
       </c>
       <c r="T15" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M15,Trigger),"--")</f>
-        <v>42555</v>
+        <v>42723</v>
       </c>
       <c r="V15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSW</v>
       </c>
       <c r="W15" s="4" t="str">
-        <v>obj_001df</v>
+        <v>obj_001f8</v>
       </c>
       <c r="X15" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
-        <v>JPYSB6L2Y_Quote</v>
+        <v>JPYSB6L3Y_Quote</v>
       </c>
       <c r="Y15" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>1.0999999999999998E-3</v>
+        <v>-1.075E-3</v>
       </c>
       <c r="Z15" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
-        <v>3.5E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AA15" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB15" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>43010</v>
+        <v>43542</v>
       </c>
       <c r="AC15" s="84">
-        <v>0.99850915884589508</v>
+        <v>1.0041452943517573</v>
       </c>
       <c r="AD15" s="184"/>
       <c r="AE15" s="191">
@@ -9755,7 +9758,7 @@
       </c>
       <c r="AF15" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF14,"1m","mf",TRUE),Trigger)</f>
-        <v>42429</v>
+        <v>42580</v>
       </c>
       <c r="AG15" s="192" t="str">
         <f t="shared" si="7"/>
@@ -9763,7 +9766,7 @@
       </c>
       <c r="AH15" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF15,_xll.qlCalendarAdvance(Calendar,AF15,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AI15" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG15,Trigger),_xll.qlQuoteValue(AG15,Trigger),1)</f>
@@ -9804,7 +9807,7 @@
       <c r="I16" s="136"/>
       <c r="J16" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H16,B16&amp;"M",G16,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001a9#0001</v>
+        <v>obj_001c0#0005</v>
       </c>
       <c r="K16" s="53"/>
       <c r="L16" s="11" t="str">
@@ -9813,7 +9816,7 @@
       </c>
       <c r="M16" s="105" t="str">
         <f t="shared" si="6"/>
-        <v>obj_001c5#0001</v>
+        <v>obj_001d9#0005</v>
       </c>
       <c r="N16" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M16,Trigger),"--")</f>
@@ -9821,7 +9824,7 @@
       </c>
       <c r="O16" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M16,Trigger),"--")</f>
-        <v>7.5000000000000002E-4</v>
+        <v>-1.4250000000000001E-3</v>
       </c>
       <c r="P16" s="108" t="b">
         <v>1</v>
@@ -9834,41 +9837,41 @@
       </c>
       <c r="S16" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M16,Trigger),"--")</f>
-        <v>42555</v>
+        <v>42723</v>
       </c>
       <c r="T16" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M16,Trigger),"--")</f>
-        <v>42646</v>
+        <v>42814</v>
       </c>
       <c r="V16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSW</v>
       </c>
       <c r="W16" s="4" t="str">
-        <v>obj_001ef</v>
+        <v>obj_001f3</v>
       </c>
       <c r="X16" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
-        <v>JPYSB6L3Y_Quote</v>
+        <v>JPYSB6L4Y_Quote</v>
       </c>
       <c r="Y16" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>1.1999999999999999E-3</v>
+        <v>-9.2500000000000004E-4</v>
       </c>
       <c r="Z16" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
-        <v>3.5E-4</v>
+        <v>2.6249999999999998E-4</v>
       </c>
       <c r="AA16" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB16" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>43375</v>
+        <v>43908</v>
       </c>
       <c r="AC16" s="84">
-        <v>0.99746592639741916</v>
+        <v>1.0047814742466472</v>
       </c>
       <c r="AD16" s="184"/>
       <c r="AE16" s="191">
@@ -9876,7 +9879,7 @@
       </c>
       <c r="AF16" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF15,"1m","mf",TRUE),Trigger)</f>
-        <v>42460</v>
+        <v>42613</v>
       </c>
       <c r="AG16" s="192" t="str">
         <f t="shared" si="7"/>
@@ -9925,7 +9928,7 @@
       <c r="I17" s="136"/>
       <c r="J17" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H17,B17&amp;"M",G17,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001c3#0001</v>
+        <v>obj_001d1#0005</v>
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="11" t="str">
@@ -9934,7 +9937,7 @@
       </c>
       <c r="M17" s="105" t="str">
         <f t="shared" si="6"/>
-        <v>obj_001bd#0001</v>
+        <v>obj_001d8#0005</v>
       </c>
       <c r="N17" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
@@ -9942,7 +9945,7 @@
       </c>
       <c r="O17" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>7.5000000000000002E-4</v>
+        <v>-1.6125E-3</v>
       </c>
       <c r="P17" s="108" t="b">
         <v>1</v>
@@ -9955,41 +9958,41 @@
       </c>
       <c r="S17" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42646</v>
+        <v>42814</v>
       </c>
       <c r="T17" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>42738</v>
+        <v>42905</v>
       </c>
       <c r="V17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSW</v>
       </c>
       <c r="W17" s="4" t="str">
-        <v>obj_001dc</v>
+        <v>obj_001f9</v>
       </c>
       <c r="X17" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
-        <v>JPYSB6L4Y_Quote</v>
+        <v>JPYSB6L5Y_Quote</v>
       </c>
       <c r="Y17" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>1.5E-3</v>
+        <v>-6.2500000000000001E-4</v>
       </c>
       <c r="Z17" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
-        <v>3.5E-4</v>
+        <v>2.375E-4</v>
       </c>
       <c r="AA17" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB17" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>43740</v>
+        <v>44273</v>
       </c>
       <c r="AC17" s="84">
-        <v>0.99542651228650114</v>
+        <v>1.0043489335248259</v>
       </c>
       <c r="AD17" s="184"/>
       <c r="AE17" s="191">
@@ -9997,7 +10000,7 @@
       </c>
       <c r="AF17" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF16,"1m","mf",TRUE),Trigger)</f>
-        <v>42489</v>
+        <v>42643</v>
       </c>
       <c r="AG17" s="192" t="str">
         <f t="shared" si="7"/>
@@ -10005,7 +10008,7 @@
       </c>
       <c r="AH17" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF17,_xll.qlCalendarAdvance(Calendar,AF17,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AI17" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG17,Trigger),_xll.qlQuoteValue(AG17,Trigger),1)</f>
@@ -10046,7 +10049,7 @@
       <c r="I18" s="136"/>
       <c r="J18" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H18,B18&amp;"M",G18,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001c5#0001</v>
+        <v>obj_001d9#0005</v>
       </c>
       <c r="K18" s="53"/>
       <c r="L18" s="11" t="str">
@@ -10055,18 +10058,19 @@
       </c>
       <c r="M18" s="105" t="str">
         <f t="shared" si="6"/>
-        <v>obj_001bf#0001</v>
+        <v>obj_001be#0005</v>
       </c>
       <c r="N18" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
         <v>JPY15x18F_Quote</v>
       </c>
-      <c r="O18" s="109">
+      <c r="O18" s="109" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>7.000000000000001E-4</v>
-      </c>
-      <c r="P18" s="108" t="b">
-        <v>1</v>
+        <v>--</v>
+      </c>
+      <c r="P18" s="210" t="str">
+        <f>IF(_xll.qlRateHelperQuoteIsValid(M18,Trigger),"TRUE","FALSE")</f>
+        <v>FALSE</v>
       </c>
       <c r="Q18" s="105">
         <v>20</v>
@@ -10076,41 +10080,41 @@
       </c>
       <c r="S18" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>42738</v>
+        <v>42905</v>
       </c>
       <c r="T18" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>42828</v>
+        <v>42996</v>
       </c>
       <c r="V18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSW</v>
       </c>
       <c r="W18" s="4" t="str">
-        <v>obj_001d9</v>
+        <v>obj_001f1</v>
       </c>
       <c r="X18" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
-        <v>JPYSB6L5Y_Quote</v>
+        <v>JPYSB6L6Y_Quote</v>
       </c>
       <c r="Y18" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>1.9750000000000002E-3</v>
+        <v>-2.5000000000000001E-4</v>
       </c>
       <c r="Z18" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
-        <v>3.7500000000000001E-4</v>
+        <v>2.1249999999999999E-4</v>
       </c>
       <c r="AA18" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB18" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>44106</v>
+        <v>44638</v>
       </c>
       <c r="AC18" s="84">
-        <v>0.99204451155663753</v>
+        <v>1.0028132744735203</v>
       </c>
       <c r="AD18" s="184"/>
       <c r="AE18" s="191">
@@ -10118,7 +10122,7 @@
       </c>
       <c r="AF18" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF17,"1m","mf",TRUE),Trigger)</f>
-        <v>42521</v>
+        <v>42674</v>
       </c>
       <c r="AG18" s="192" t="str">
         <f t="shared" si="7"/>
@@ -10167,7 +10171,7 @@
       <c r="I19" s="136"/>
       <c r="J19" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H19,B19&amp;"M",G19,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001bd#0001</v>
+        <v>obj_001d8#0005</v>
       </c>
       <c r="K19" s="53"/>
       <c r="L19" s="11" t="str">
@@ -10176,7 +10180,7 @@
       </c>
       <c r="M19" s="105" t="str">
         <f t="shared" si="6"/>
-        <v>obj_001ab#0001</v>
+        <v>obj_001c9#0005</v>
       </c>
       <c r="N19" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M19,Trigger),"--")</f>
@@ -10184,7 +10188,7 @@
       </c>
       <c r="O19" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M19,Trigger),"--")</f>
-        <v>7.000000000000001E-4</v>
+        <v>-1.9250000000000001E-3</v>
       </c>
       <c r="P19" s="108" t="b">
         <v>0</v>
@@ -10197,41 +10201,41 @@
       </c>
       <c r="S19" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M19,Trigger),"--")</f>
-        <v>42828</v>
+        <v>42996</v>
       </c>
       <c r="T19" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M19,Trigger),"--")</f>
-        <v>42919</v>
+        <v>43087</v>
       </c>
       <c r="V19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSW</v>
       </c>
       <c r="W19" s="4" t="str">
-        <v>obj_001e3</v>
+        <v>obj_001f2</v>
       </c>
       <c r="X19" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
-        <v>JPYSB6L6Y_Quote</v>
+        <v>JPYSB6L7Y_Quote</v>
       </c>
       <c r="Y19" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>2.5249999999999999E-3</v>
+        <v>1.5000000000000004E-4</v>
       </c>
       <c r="Z19" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
-        <v>3.7500000000000001E-4</v>
+        <v>1.875E-4</v>
       </c>
       <c r="AA19" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB19" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>44473</v>
+        <v>45005</v>
       </c>
       <c r="AC19" s="84">
-        <v>0.9871728130208014</v>
+        <v>1.000302404726811</v>
       </c>
       <c r="AD19" s="184"/>
       <c r="AE19" s="191">
@@ -10239,7 +10243,7 @@
       </c>
       <c r="AF19" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF18,"1m","mf",TRUE),Trigger)</f>
-        <v>42551</v>
+        <v>42704</v>
       </c>
       <c r="AG19" s="192" t="str">
         <f t="shared" si="7"/>
@@ -10288,7 +10292,7 @@
       <c r="I20" s="136"/>
       <c r="J20" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H20,B20&amp;"M",G20,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001bf#0001</v>
+        <v>obj_001be#0005</v>
       </c>
       <c r="K20" s="53"/>
       <c r="L20" s="11" t="str">
@@ -10297,15 +10301,15 @@
       </c>
       <c r="M20" s="105" t="str">
         <f t="shared" si="6"/>
-        <v>obj_001b1#0001</v>
+        <v>obj_001c1#0005</v>
       </c>
       <c r="N20" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M20,Trigger),"--")</f>
         <v>JPY21x24F_Quote</v>
       </c>
-      <c r="O20" s="109">
+      <c r="O20" s="109" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M20,Trigger),"--")</f>
-        <v>7.5000000000000002E-4</v>
+        <v>--</v>
       </c>
       <c r="P20" s="108" t="b">
         <v>0</v>
@@ -10318,41 +10322,41 @@
       </c>
       <c r="S20" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M20,Trigger),"--")</f>
-        <v>42919</v>
+        <v>43087</v>
       </c>
       <c r="T20" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M20,Trigger),"--")</f>
-        <v>43010</v>
+        <v>43178</v>
       </c>
       <c r="V20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BasSW</v>
       </c>
       <c r="W20" s="4" t="str">
-        <v>obj_001d7</v>
+        <v>obj_001ff</v>
       </c>
       <c r="X20" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
-        <v>JPYSB6L7Y_Quote</v>
+        <v>JPYSB6L8Y_Quote</v>
       </c>
       <c r="Y20" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>3.1250000000000002E-3</v>
+        <v>5.6249999999999996E-4</v>
       </c>
       <c r="Z20" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1.6249999999999999E-4</v>
       </c>
       <c r="AA20" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB20" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>44837</v>
+        <v>45369</v>
       </c>
       <c r="AC20" s="84">
-        <v>0.98107672813337887</v>
+        <v>0.99684362010429117</v>
       </c>
       <c r="AD20" s="184"/>
       <c r="AE20" s="191">
@@ -10360,7 +10364,7 @@
       </c>
       <c r="AF20" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF19,"1m","mf",TRUE),Trigger)</f>
-        <v>42580</v>
+        <v>42734</v>
       </c>
       <c r="AG20" s="192" t="str">
         <f t="shared" si="7"/>
@@ -10368,7 +10372,7 @@
       </c>
       <c r="AH20" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF20,_xll.qlCalendarAdvance(Calendar,AF20,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="AI20" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG20,Trigger),_xll.qlQuoteValue(AG20,Trigger),1)</f>
@@ -10409,7 +10413,7 @@
       <c r="I21" s="136"/>
       <c r="J21" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H21,B21&amp;"M",G21,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ab#0001</v>
+        <v>obj_001c9#0005</v>
       </c>
       <c r="K21" s="53"/>
       <c r="L21" s="74" t="str">
@@ -10450,30 +10454,30 @@
         <v>BasSW</v>
       </c>
       <c r="W21" s="4" t="str">
-        <v>obj_001d4</v>
+        <v>obj_001f0</v>
       </c>
       <c r="X21" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
-        <v>JPYSB6L8Y_Quote</v>
+        <v>JPYSB6L9Y_Quote</v>
       </c>
       <c r="Y21" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>3.7499999999999999E-3</v>
+        <v>9.7500000000000006E-4</v>
       </c>
       <c r="Z21" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
-        <v>4.2499999999999998E-4</v>
+        <v>1.3750000000000001E-4</v>
       </c>
       <c r="AA21" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB21" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>45201</v>
+        <v>45734</v>
       </c>
       <c r="AC21" s="84">
-        <v>0.97368367960211732</v>
+        <v>0.99252062509708361</v>
       </c>
       <c r="AD21" s="184"/>
       <c r="AE21" s="191">
@@ -10481,7 +10485,7 @@
       </c>
       <c r="AF21" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF20,"1m","mf",TRUE),Trigger)</f>
-        <v>42613</v>
+        <v>42766</v>
       </c>
       <c r="AG21" s="192" t="str">
         <f t="shared" si="7"/>
@@ -10530,7 +10534,7 @@
       <c r="I22" s="137"/>
       <c r="J22" s="3" t="str">
         <f>_xll.qlFraRateHelper(,H22,B22&amp;"M",G22,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001b1#0001</v>
+        <v>obj_001c1#0005</v>
       </c>
       <c r="K22" s="53"/>
       <c r="L22" s="11" t="str">
@@ -10571,30 +10575,30 @@
         <v>BasSW</v>
       </c>
       <c r="W22" s="4" t="str">
-        <v>obj_001e2</v>
+        <v>obj_001fb</v>
       </c>
       <c r="X22" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
-        <v>JPYSB6L9Y_Quote</v>
+        <v>JPYSB6L10Y_Quote</v>
       </c>
       <c r="Y22" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>4.4000000000000003E-3</v>
+        <v>1.4124999999999999E-3</v>
       </c>
       <c r="Z22" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
-        <v>4.4999999999999999E-4</v>
+        <v>1.25E-4</v>
       </c>
       <c r="AA22" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB22" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>45567</v>
+        <v>46099</v>
       </c>
       <c r="AC22" s="84">
-        <v>0.96491919889812683</v>
+        <v>0.98721841024392276</v>
       </c>
       <c r="AD22" s="184"/>
       <c r="AE22" s="191">
@@ -10602,7 +10606,7 @@
       </c>
       <c r="AF22" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF21,"1m","mf",TRUE),Trigger)</f>
-        <v>42643</v>
+        <v>42794</v>
       </c>
       <c r="AG22" s="192" t="str">
         <f t="shared" si="7"/>
@@ -10610,7 +10614,7 @@
       </c>
       <c r="AH22" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF22,_xll.qlCalendarAdvance(Calendar,AF22,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AI22" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG22,Trigger),_xll.qlQuoteValue(AG22,Trigger),1)</f>
@@ -10675,30 +10679,30 @@
         <v>BasSW</v>
       </c>
       <c r="W23" s="4" t="str">
-        <v>obj_001e9</v>
+        <v>obj_00204</v>
       </c>
       <c r="X23" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
-        <v>JPYSB6L10Y_Quote</v>
+        <v>JPYSB6L15Y_Quote</v>
       </c>
       <c r="Y23" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v>5.1000000000000004E-3</v>
+        <v>3.6750000000000003E-3</v>
       </c>
       <c r="Z23" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
-        <v>4.75E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="AA23" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB23" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v>45932</v>
+        <v>47925</v>
       </c>
       <c r="AC23" s="84">
-        <v>0.95451648159710645</v>
+        <v>0.94731569499986079</v>
       </c>
       <c r="AD23" s="184"/>
       <c r="AE23" s="197">
@@ -10706,7 +10710,7 @@
       </c>
       <c r="AF23" s="198">
         <f>_xll.qlCalendarAdjust(Calendar,DATE(YEAR(AF11)+1,12,31),"preceding",Trigger)</f>
-        <v>42734</v>
+        <v>43098</v>
       </c>
       <c r="AG23" s="198" t="str">
         <f t="shared" si="7"/>
@@ -10794,30 +10798,30 @@
         <v>BasSW</v>
       </c>
       <c r="W24" s="4" t="str">
-        <v>obj_001ee</v>
+        <v>obj_00203</v>
       </c>
       <c r="X24" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W24,Trigger),"")</f>
-        <v>JPYSB6L15Y_Quote</v>
+        <v>JPYSB6L20Y_Quote</v>
       </c>
       <c r="Y24" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W24,Trigger),"")</f>
-        <v>8.6250000000000007E-3</v>
+        <v>5.4250000000000001E-3</v>
       </c>
       <c r="Z24" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W24)),_xll.qlSwapRateHelperSpread($W24))</f>
-        <v>4.4999999999999999E-4</v>
+        <v>7.4999999999999993E-5</v>
       </c>
       <c r="AA24" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W24,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB24" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
-        <v>47758</v>
+        <v>49752</v>
       </c>
       <c r="AC24" s="84">
-        <v>0.8823144231157829</v>
+        <v>0.89676754317418317</v>
       </c>
       <c r="AD24" s="184"/>
     </row>
@@ -10830,7 +10834,7 @@
       </c>
       <c r="C25" s="61" t="str">
         <f>_xll.qlIMMNextCode(Evaluationdate-1,B25,Trigger)</f>
-        <v>V5</v>
+        <v>H6</v>
       </c>
       <c r="D25" s="142"/>
       <c r="E25" s="142"/>
@@ -10841,11 +10845,11 @@
       </c>
       <c r="H25" s="129" t="str">
         <f t="shared" ref="H25:H46" si="16">Currency&amp;"FUT"&amp;Tenor&amp;$C25&amp;QuoteSuffix</f>
-        <v>JPYFUT3MV5_Quote</v>
+        <v>JPYFUT3MH6_Quote</v>
       </c>
       <c r="I25" s="129" t="str">
         <f t="shared" ref="I25:I46" si="17">Currency&amp;"FUT"&amp;Tenor&amp;$C25&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>JPYFUT3MV5ConvAdj_Quote</v>
+        <v>JPYFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="J25" s="63" t="s">
         <v>152</v>
@@ -10889,30 +10893,30 @@
         <v>BasSW</v>
       </c>
       <c r="W25" s="4" t="str">
-        <v>obj_001e5</v>
+        <v>obj_001f6</v>
       </c>
       <c r="X25" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W25,Trigger),"")</f>
-        <v>JPYSB6L20Y_Quote</v>
+        <v>JPYSB6L30Y_Quote</v>
       </c>
       <c r="Y25" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W25,Trigger),"")</f>
-        <v>1.1350000000000001E-2</v>
+        <v>7.0374999999999986E-3</v>
       </c>
       <c r="Z25" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W25)),_xll.qlSwapRateHelperSpread($W25))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="AA25" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W25,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB25" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
-        <v>49584</v>
+        <v>53405</v>
       </c>
       <c r="AC25" s="84">
-        <v>0.79687662952597715</v>
+        <v>0.80636689108188098</v>
       </c>
       <c r="AD25" s="184"/>
     </row>
@@ -10925,7 +10929,7 @@
       </c>
       <c r="C26" s="68" t="str">
         <f>_xll.qlIMMNextCode(C25,B26,Trigger)</f>
-        <v>X5</v>
+        <v>J6</v>
       </c>
       <c r="D26" s="136"/>
       <c r="E26" s="136"/>
@@ -10936,11 +10940,11 @@
       </c>
       <c r="H26" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MX5_Quote</v>
+        <v>JPYFUT3MJ6_Quote</v>
       </c>
       <c r="I26" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MX5ConvAdj_Quote</v>
+        <v>JPYFUT3MJ6ConvAdj_Quote</v>
       </c>
       <c r="J26" s="70"/>
       <c r="K26" s="53"/>
@@ -10979,33 +10983,33 @@
       </c>
       <c r="V26" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>BasSW</v>
-      </c>
-      <c r="W26" s="4" t="str">
-        <v>obj_001f1</v>
+        <v/>
+      </c>
+      <c r="W26" s="4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="X26" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W26,Trigger),"")</f>
-        <v>JPYSB6L30Y_Quote</v>
-      </c>
-      <c r="Y26" s="76">
+        <v/>
+      </c>
+      <c r="Y26" s="76" t="str">
         <f>IFERROR(_xll.qlRateHelperRate(W26,Trigger),"")</f>
-        <v>1.3625E-2</v>
-      </c>
-      <c r="Z26" s="115">
+        <v/>
+      </c>
+      <c r="Z26" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W26)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W26)),_xll.qlSwapRateHelperSpread($W26))</f>
-        <v>3.2499999999999999E-4</v>
-      </c>
-      <c r="AA26" s="5">
+        <v/>
+      </c>
+      <c r="AA26" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W26,Trigger),"")</f>
-        <v>42279</v>
-      </c>
-      <c r="AB26" s="5">
+        <v/>
+      </c>
+      <c r="AB26" s="5" t="str">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W26,Trigger),"")</f>
-        <v>53237</v>
-      </c>
-      <c r="AC26" s="84">
-        <v>0.65790564283221575</v>
+        <v/>
+      </c>
+      <c r="AC26" s="84" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AD26" s="184"/>
     </row>
@@ -11018,7 +11022,7 @@
       </c>
       <c r="C27" s="68" t="str">
         <f>_xll.qlIMMNextCode(C26,B27,Trigger)</f>
-        <v>Z5</v>
+        <v>K6</v>
       </c>
       <c r="D27" s="136"/>
       <c r="E27" s="136"/>
@@ -11029,11 +11033,11 @@
       </c>
       <c r="H27" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MZ5_Quote</v>
+        <v>JPYFUT3MK6_Quote</v>
       </c>
       <c r="I27" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MZ5ConvAdj_Quote</v>
+        <v>JPYFUT3MK6ConvAdj_Quote</v>
       </c>
       <c r="J27" s="70"/>
       <c r="K27" s="53"/>
@@ -11111,7 +11115,7 @@
       </c>
       <c r="C28" s="68" t="str">
         <f>_xll.qlIMMNextCode(C27,B28,Trigger)</f>
-        <v>F6</v>
+        <v>M6</v>
       </c>
       <c r="D28" s="136"/>
       <c r="E28" s="136"/>
@@ -11122,11 +11126,11 @@
       </c>
       <c r="H28" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MF6_Quote</v>
+        <v>JPYFUT3MM6_Quote</v>
       </c>
       <c r="I28" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MF6ConvAdj_Quote</v>
+        <v>JPYFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="J28" s="70"/>
       <c r="K28" s="53"/>
@@ -11204,7 +11208,7 @@
       </c>
       <c r="C29" s="10" t="str">
         <f>_xll.qlIMMNextCode(C28,B29,Trigger)</f>
-        <v>G6</v>
+        <v>N6</v>
       </c>
       <c r="D29" s="137"/>
       <c r="E29" s="137"/>
@@ -11215,11 +11219,11 @@
       </c>
       <c r="H29" s="131" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MG6_Quote</v>
+        <v>JPYFUT3MN6_Quote</v>
       </c>
       <c r="I29" s="131" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MG6ConvAdj_Quote</v>
+        <v>JPYFUT3MN6ConvAdj_Quote</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="53"/>
@@ -11297,7 +11301,7 @@
       </c>
       <c r="C30" s="68" t="str">
         <f>_xll.qlIMMNextCode(C29,B30,Trigger)</f>
-        <v>H6</v>
+        <v>U6</v>
       </c>
       <c r="D30" s="136"/>
       <c r="E30" s="136"/>
@@ -11308,11 +11312,11 @@
       </c>
       <c r="H30" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MH6_Quote</v>
+        <v>JPYFUT3MU6_Quote</v>
       </c>
       <c r="I30" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MH6ConvAdj_Quote</v>
+        <v>JPYFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="J30" s="70"/>
       <c r="K30" s="53"/>
@@ -11390,7 +11394,7 @@
       </c>
       <c r="C31" s="68" t="str">
         <f>_xll.qlIMMNextCode(C30,B31,Trigger)</f>
-        <v>M6</v>
+        <v>Z6</v>
       </c>
       <c r="D31" s="136"/>
       <c r="E31" s="136"/>
@@ -11401,11 +11405,11 @@
       </c>
       <c r="H31" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MM6_Quote</v>
+        <v>JPYFUT3MZ6_Quote</v>
       </c>
       <c r="I31" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MM6ConvAdj_Quote</v>
+        <v>JPYFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="J31" s="70"/>
       <c r="K31" s="53"/>
@@ -11482,7 +11486,7 @@
       </c>
       <c r="C32" s="68" t="str">
         <f>_xll.qlIMMNextCode(C31,B32,Trigger)</f>
-        <v>U6</v>
+        <v>H7</v>
       </c>
       <c r="D32" s="136"/>
       <c r="E32" s="136"/>
@@ -11493,11 +11497,11 @@
       </c>
       <c r="H32" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MU6_Quote</v>
+        <v>JPYFUT3MH7_Quote</v>
       </c>
       <c r="I32" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MU6ConvAdj_Quote</v>
+        <v>JPYFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="J32" s="70"/>
       <c r="K32" s="53"/>
@@ -11574,7 +11578,7 @@
       </c>
       <c r="C33" s="68" t="str">
         <f>_xll.qlIMMNextCode(C32,B33,Trigger)</f>
-        <v>Z6</v>
+        <v>M7</v>
       </c>
       <c r="D33" s="136"/>
       <c r="E33" s="136"/>
@@ -11585,11 +11589,11 @@
       </c>
       <c r="H33" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MZ6_Quote</v>
+        <v>JPYFUT3MM7_Quote</v>
       </c>
       <c r="I33" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MZ6ConvAdj_Quote</v>
+        <v>JPYFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="J33" s="70"/>
       <c r="K33" s="53"/>
@@ -11666,7 +11670,7 @@
       </c>
       <c r="C34" s="68" t="str">
         <f>_xll.qlIMMNextCode(C33,B34,Trigger)</f>
-        <v>H7</v>
+        <v>U7</v>
       </c>
       <c r="D34" s="136"/>
       <c r="E34" s="136"/>
@@ -11677,11 +11681,11 @@
       </c>
       <c r="H34" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MH7_Quote</v>
+        <v>JPYFUT3MU7_Quote</v>
       </c>
       <c r="I34" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MH7ConvAdj_Quote</v>
+        <v>JPYFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="J34" s="70"/>
       <c r="K34" s="53"/>
@@ -11758,7 +11762,7 @@
       </c>
       <c r="C35" s="68" t="str">
         <f>_xll.qlIMMNextCode(C34,B35,Trigger)</f>
-        <v>M7</v>
+        <v>Z7</v>
       </c>
       <c r="D35" s="136"/>
       <c r="E35" s="136"/>
@@ -11769,11 +11773,11 @@
       </c>
       <c r="H35" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MM7_Quote</v>
+        <v>JPYFUT3MZ7_Quote</v>
       </c>
       <c r="I35" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MM7ConvAdj_Quote</v>
+        <v>JPYFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="J35" s="70"/>
       <c r="K35" s="53"/>
@@ -11850,7 +11854,7 @@
       </c>
       <c r="C36" s="68" t="str">
         <f>_xll.qlIMMNextCode(C35,B36,Trigger)</f>
-        <v>U7</v>
+        <v>H8</v>
       </c>
       <c r="D36" s="136"/>
       <c r="E36" s="136"/>
@@ -11861,11 +11865,11 @@
       </c>
       <c r="H36" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MU7_Quote</v>
+        <v>JPYFUT3MH8_Quote</v>
       </c>
       <c r="I36" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MU7ConvAdj_Quote</v>
+        <v>JPYFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="J36" s="70"/>
       <c r="K36" s="53"/>
@@ -11942,7 +11946,7 @@
       </c>
       <c r="C37" s="68" t="str">
         <f>_xll.qlIMMNextCode(C36,B37,Trigger)</f>
-        <v>Z7</v>
+        <v>M8</v>
       </c>
       <c r="D37" s="136"/>
       <c r="E37" s="136"/>
@@ -11953,11 +11957,11 @@
       </c>
       <c r="H37" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MZ7_Quote</v>
+        <v>JPYFUT3MM8_Quote</v>
       </c>
       <c r="I37" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MZ7ConvAdj_Quote</v>
+        <v>JPYFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="J37" s="70"/>
       <c r="K37" s="53"/>
@@ -12034,7 +12038,7 @@
       </c>
       <c r="C38" s="68" t="str">
         <f>_xll.qlIMMNextCode(C37,B38,Trigger)</f>
-        <v>H8</v>
+        <v>U8</v>
       </c>
       <c r="D38" s="136"/>
       <c r="E38" s="136"/>
@@ -12045,11 +12049,11 @@
       </c>
       <c r="H38" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MH8_Quote</v>
+        <v>JPYFUT3MU8_Quote</v>
       </c>
       <c r="I38" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MH8ConvAdj_Quote</v>
+        <v>JPYFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="J38" s="70"/>
       <c r="K38" s="53"/>
@@ -12126,7 +12130,7 @@
       </c>
       <c r="C39" s="68" t="str">
         <f>_xll.qlIMMNextCode(C38,B39,Trigger)</f>
-        <v>M8</v>
+        <v>Z8</v>
       </c>
       <c r="D39" s="136"/>
       <c r="E39" s="136"/>
@@ -12137,11 +12141,11 @@
       </c>
       <c r="H39" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MM8_Quote</v>
+        <v>JPYFUT3MZ8_Quote</v>
       </c>
       <c r="I39" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MM8ConvAdj_Quote</v>
+        <v>JPYFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="J39" s="70"/>
       <c r="K39" s="53"/>
@@ -12218,7 +12222,7 @@
       </c>
       <c r="C40" s="68" t="str">
         <f>_xll.qlIMMNextCode(C39,B40,Trigger)</f>
-        <v>U8</v>
+        <v>H9</v>
       </c>
       <c r="D40" s="136"/>
       <c r="E40" s="136"/>
@@ -12229,11 +12233,11 @@
       </c>
       <c r="H40" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MU8_Quote</v>
+        <v>JPYFUT3MH9_Quote</v>
       </c>
       <c r="I40" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MU8ConvAdj_Quote</v>
+        <v>JPYFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="J40" s="70"/>
       <c r="K40" s="53"/>
@@ -12310,7 +12314,7 @@
       </c>
       <c r="C41" s="68" t="str">
         <f>_xll.qlIMMNextCode(C40,B41,Trigger)</f>
-        <v>Z8</v>
+        <v>M9</v>
       </c>
       <c r="D41" s="136"/>
       <c r="E41" s="136"/>
@@ -12321,11 +12325,11 @@
       </c>
       <c r="H41" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MZ8_Quote</v>
+        <v>JPYFUT3MM9_Quote</v>
       </c>
       <c r="I41" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MZ8ConvAdj_Quote</v>
+        <v>JPYFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="J41" s="70"/>
       <c r="L41" s="11" t="str">
@@ -12401,7 +12405,7 @@
       </c>
       <c r="C42" s="68" t="str">
         <f>_xll.qlIMMNextCode(C41,B42,Trigger)</f>
-        <v>H9</v>
+        <v>U9</v>
       </c>
       <c r="D42" s="136"/>
       <c r="E42" s="136"/>
@@ -12412,11 +12416,11 @@
       </c>
       <c r="H42" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MH9_Quote</v>
+        <v>JPYFUT3MU9_Quote</v>
       </c>
       <c r="I42" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MH9ConvAdj_Quote</v>
+        <v>JPYFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="J42" s="70"/>
       <c r="L42" s="12" t="str">
@@ -12492,7 +12496,7 @@
       </c>
       <c r="C43" s="68" t="str">
         <f>_xll.qlIMMNextCode(C42,B43,Trigger)</f>
-        <v>M9</v>
+        <v>Z9</v>
       </c>
       <c r="D43" s="136"/>
       <c r="E43" s="136"/>
@@ -12503,11 +12507,11 @@
       </c>
       <c r="H43" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MM9_Quote</v>
+        <v>JPYFUT3MZ9_Quote</v>
       </c>
       <c r="I43" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MM9ConvAdj_Quote</v>
+        <v>JPYFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="J43" s="70"/>
       <c r="L43" s="147" t="str">
@@ -12583,7 +12587,7 @@
       </c>
       <c r="C44" s="68" t="str">
         <f>_xll.qlIMMNextCode(C43,B44,Trigger)</f>
-        <v>U9</v>
+        <v>H0</v>
       </c>
       <c r="D44" s="136"/>
       <c r="E44" s="136"/>
@@ -12594,11 +12598,11 @@
       </c>
       <c r="H44" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MU9_Quote</v>
+        <v>JPYFUT3MH0_Quote</v>
       </c>
       <c r="I44" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MU9ConvAdj_Quote</v>
+        <v>JPYFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="J44" s="70"/>
       <c r="L44" s="77" t="str">
@@ -12674,7 +12678,7 @@
       </c>
       <c r="C45" s="68" t="str">
         <f>_xll.qlIMMNextCode(C44,B45,Trigger)</f>
-        <v>Z9</v>
+        <v>M0</v>
       </c>
       <c r="D45" s="136"/>
       <c r="E45" s="136"/>
@@ -12685,11 +12689,11 @@
       </c>
       <c r="H45" s="130" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MZ9_Quote</v>
+        <v>JPYFUT3MM0_Quote</v>
       </c>
       <c r="I45" s="130" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MZ9ConvAdj_Quote</v>
+        <v>JPYFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="J45" s="70"/>
       <c r="L45" s="77" t="str">
@@ -12765,7 +12769,7 @@
       </c>
       <c r="C46" s="10" t="str">
         <f>_xll.qlIMMNextCode(C45,B46,Trigger)</f>
-        <v>H0</v>
+        <v>U0</v>
       </c>
       <c r="D46" s="137"/>
       <c r="E46" s="137"/>
@@ -12776,11 +12780,11 @@
       </c>
       <c r="H46" s="131" t="str">
         <f t="shared" si="16"/>
-        <v>JPYFUT3MH0_Quote</v>
+        <v>JPYFUT3MU0_Quote</v>
       </c>
       <c r="I46" s="131" t="str">
         <f t="shared" si="17"/>
-        <v>JPYFUT3MH0ConvAdj_Quote</v>
+        <v>JPYFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="J46" s="3"/>
       <c r="L46" s="77" t="str">
@@ -12863,7 +12867,7 @@
       </c>
       <c r="M47" s="152" t="str">
         <f t="shared" si="20"/>
-        <v>obj_001df#0001</v>
+        <v>obj_001ea#0005</v>
       </c>
       <c r="N47" s="161" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M47,Trigger),"--")</f>
@@ -12871,7 +12875,7 @@
       </c>
       <c r="O47" s="154">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M47,Trigger),"--")</f>
-        <v>1.0999999999999998E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="P47" s="153" t="b">
         <v>1</v>
@@ -12884,11 +12888,11 @@
       </c>
       <c r="S47" s="155">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M47,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T47" s="155">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M47,Trigger),"--")</f>
-        <v>43010</v>
+        <v>43178</v>
       </c>
       <c r="V47" s="4" t="str">
         <f t="shared" si="18"/>
@@ -12958,7 +12962,7 @@
       </c>
       <c r="M48" s="152" t="str">
         <f t="shared" si="20"/>
-        <v>obj_001ef#0001</v>
+        <v>obj_001f8#0005</v>
       </c>
       <c r="N48" s="161" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M48,Trigger),"--")</f>
@@ -12966,7 +12970,7 @@
       </c>
       <c r="O48" s="154">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M48,Trigger),"--")</f>
-        <v>1.1999999999999999E-3</v>
+        <v>-1.075E-3</v>
       </c>
       <c r="P48" s="153" t="b">
         <v>1</v>
@@ -12979,11 +12983,11 @@
       </c>
       <c r="S48" s="155">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M48,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T48" s="155">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M48,Trigger),"--")</f>
-        <v>43375</v>
+        <v>43542</v>
       </c>
       <c r="V48" s="4" t="str">
         <f t="shared" si="18"/>
@@ -13054,7 +13058,7 @@
       </c>
       <c r="M49" s="152" t="str">
         <f t="shared" si="20"/>
-        <v>obj_001dc#0001</v>
+        <v>obj_001f3#0005</v>
       </c>
       <c r="N49" s="161" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M49,Trigger),"--")</f>
@@ -13062,7 +13066,7 @@
       </c>
       <c r="O49" s="154">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M49,Trigger),"--")</f>
-        <v>1.5E-3</v>
+        <v>-9.2500000000000004E-4</v>
       </c>
       <c r="P49" s="153" t="b">
         <v>1</v>
@@ -13075,11 +13079,11 @@
       </c>
       <c r="S49" s="155">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M49,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T49" s="155">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M49,Trigger),"--")</f>
-        <v>43740</v>
+        <v>43908</v>
       </c>
       <c r="V49" s="4" t="str">
         <f t="shared" si="18"/>
@@ -13150,7 +13154,7 @@
       </c>
       <c r="M50" s="152" t="str">
         <f t="shared" si="20"/>
-        <v>obj_001d9#0001</v>
+        <v>obj_001f9#0005</v>
       </c>
       <c r="N50" s="161" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M50,Trigger),"--")</f>
@@ -13158,7 +13162,7 @@
       </c>
       <c r="O50" s="154">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M50,Trigger),"--")</f>
-        <v>1.9750000000000002E-3</v>
+        <v>-6.2500000000000001E-4</v>
       </c>
       <c r="P50" s="153" t="b">
         <v>1</v>
@@ -13171,11 +13175,11 @@
       </c>
       <c r="S50" s="155">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M50,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T50" s="155">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M50,Trigger),"--")</f>
-        <v>44106</v>
+        <v>44273</v>
       </c>
       <c r="V50" s="4" t="str">
         <f t="shared" si="18"/>
@@ -13246,7 +13250,7 @@
       </c>
       <c r="M51" s="152" t="str">
         <f t="shared" si="20"/>
-        <v>obj_001e3#0001</v>
+        <v>obj_001f1#0005</v>
       </c>
       <c r="N51" s="161" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M51,Trigger),"--")</f>
@@ -13254,7 +13258,7 @@
       </c>
       <c r="O51" s="154">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M51,Trigger),"--")</f>
-        <v>2.5249999999999999E-3</v>
+        <v>-2.5000000000000001E-4</v>
       </c>
       <c r="P51" s="153" t="b">
         <v>1</v>
@@ -13267,11 +13271,11 @@
       </c>
       <c r="S51" s="155">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M51,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T51" s="155">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M51,Trigger),"--")</f>
-        <v>44473</v>
+        <v>44638</v>
       </c>
       <c r="V51" s="4" t="str">
         <f t="shared" si="18"/>
@@ -13342,7 +13346,7 @@
       </c>
       <c r="M52" s="152" t="str">
         <f t="shared" si="20"/>
-        <v>obj_001d7#0001</v>
+        <v>obj_001f2#0005</v>
       </c>
       <c r="N52" s="161" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M52,Trigger),"--")</f>
@@ -13350,7 +13354,7 @@
       </c>
       <c r="O52" s="154">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M52,Trigger),"--")</f>
-        <v>3.1250000000000002E-3</v>
+        <v>1.5000000000000004E-4</v>
       </c>
       <c r="P52" s="153" t="b">
         <v>1</v>
@@ -13363,11 +13367,11 @@
       </c>
       <c r="S52" s="155">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M52,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T52" s="155">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M52,Trigger),"--")</f>
-        <v>44837</v>
+        <v>45005</v>
       </c>
       <c r="V52" s="4" t="str">
         <f t="shared" si="18"/>
@@ -13433,7 +13437,7 @@
       </c>
       <c r="J53" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H53,,B53,JoinCalendar,JPY3M!D53,JPY3M!E53,JPY3M!F53,JPY3M!G53,JPY3M!I53,JPY3M!C53,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001df#0001</v>
+        <v>obj_001ea#0005</v>
       </c>
       <c r="L53" s="77" t="str">
         <f t="shared" si="19"/>
@@ -13441,7 +13445,7 @@
       </c>
       <c r="M53" s="152" t="str">
         <f t="shared" si="20"/>
-        <v>obj_001d4#0001</v>
+        <v>obj_001ff#0005</v>
       </c>
       <c r="N53" s="161" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M53,Trigger),"--")</f>
@@ -13449,7 +13453,7 @@
       </c>
       <c r="O53" s="154">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M53,Trigger),"--")</f>
-        <v>3.7499999999999999E-3</v>
+        <v>5.6249999999999996E-4</v>
       </c>
       <c r="P53" s="153" t="b">
         <v>1</v>
@@ -13462,11 +13466,11 @@
       </c>
       <c r="S53" s="155">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M53,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T53" s="155">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M53,Trigger),"--")</f>
-        <v>45201</v>
+        <v>45369</v>
       </c>
       <c r="V53" s="4" t="str">
         <f t="shared" si="18"/>
@@ -13532,7 +13536,7 @@
       </c>
       <c r="J54" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H54,,B54,JoinCalendar,JPY3M!D54,JPY3M!E54,JPY3M!F54,JPY3M!G54,JPY3M!I54,JPY3M!C54,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ef#0001</v>
+        <v>obj_001f8#0005</v>
       </c>
       <c r="L54" s="77" t="str">
         <f t="shared" si="19"/>
@@ -13540,7 +13544,7 @@
       </c>
       <c r="M54" s="152" t="str">
         <f t="shared" si="20"/>
-        <v>obj_001e2#0001</v>
+        <v>obj_001f0#0005</v>
       </c>
       <c r="N54" s="161" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M54,Trigger),"--")</f>
@@ -13548,7 +13552,7 @@
       </c>
       <c r="O54" s="154">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M54,Trigger),"--")</f>
-        <v>4.4000000000000003E-3</v>
+        <v>9.7500000000000006E-4</v>
       </c>
       <c r="P54" s="153" t="b">
         <v>1</v>
@@ -13561,11 +13565,11 @@
       </c>
       <c r="S54" s="155">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M54,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T54" s="155">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M54,Trigger),"--")</f>
-        <v>45567</v>
+        <v>45734</v>
       </c>
       <c r="V54" s="4" t="str">
         <f t="shared" si="18"/>
@@ -13631,7 +13635,7 @@
       </c>
       <c r="J55" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H55,,B55,JoinCalendar,JPY3M!D55,JPY3M!E55,JPY3M!F55,JPY3M!G55,JPY3M!I55,JPY3M!C55,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001dc#0001</v>
+        <v>obj_001f3#0005</v>
       </c>
       <c r="L55" s="77" t="str">
         <f t="shared" si="19"/>
@@ -13639,7 +13643,7 @@
       </c>
       <c r="M55" s="152" t="str">
         <f t="shared" si="20"/>
-        <v>obj_001e9#0001</v>
+        <v>obj_001fb#0005</v>
       </c>
       <c r="N55" s="161" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M55,Trigger),"--")</f>
@@ -13647,7 +13651,7 @@
       </c>
       <c r="O55" s="154">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M55,Trigger),"--")</f>
-        <v>5.1000000000000004E-3</v>
+        <v>1.4124999999999999E-3</v>
       </c>
       <c r="P55" s="153" t="b">
         <v>1</v>
@@ -13660,11 +13664,11 @@
       </c>
       <c r="S55" s="155">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M55,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T55" s="155">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M55,Trigger),"--")</f>
-        <v>45932</v>
+        <v>46099</v>
       </c>
       <c r="V55" s="4" t="str">
         <f t="shared" si="18"/>
@@ -13730,7 +13734,7 @@
       </c>
       <c r="J56" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H56,,B56,JoinCalendar,JPY3M!D56,JPY3M!E56,JPY3M!F56,JPY3M!G56,JPY3M!I56,JPY3M!C56,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001d9#0001</v>
+        <v>obj_001f9#0005</v>
       </c>
       <c r="L56" s="77" t="str">
         <f t="shared" si="19"/>
@@ -13829,7 +13833,7 @@
       </c>
       <c r="J57" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H57,,B57,JoinCalendar,JPY3M!D57,JPY3M!E57,JPY3M!F57,JPY3M!G57,JPY3M!I57,JPY3M!C57,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e3#0001</v>
+        <v>obj_001f1#0005</v>
       </c>
       <c r="L57" s="77" t="str">
         <f t="shared" si="19"/>
@@ -13928,7 +13932,7 @@
       </c>
       <c r="J58" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H58,,B58,JoinCalendar,JPY3M!D58,JPY3M!E58,JPY3M!F58,JPY3M!G58,JPY3M!I58,JPY3M!C58,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001d7#0001</v>
+        <v>obj_001f2#0005</v>
       </c>
       <c r="L58" s="77" t="str">
         <f t="shared" si="19"/>
@@ -14027,7 +14031,7 @@
       </c>
       <c r="J59" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H59,,B59,JoinCalendar,JPY3M!D59,JPY3M!E59,JPY3M!F59,JPY3M!G59,JPY3M!I59,JPY3M!C59,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001d4#0001</v>
+        <v>obj_001ff#0005</v>
       </c>
       <c r="L59" s="77" t="str">
         <f t="shared" si="19"/>
@@ -14126,7 +14130,7 @@
       </c>
       <c r="J60" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H60,,B60,JoinCalendar,JPY3M!D60,JPY3M!E60,JPY3M!F60,JPY3M!G60,JPY3M!I60,JPY3M!C60,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e2#0001</v>
+        <v>obj_001f0#0005</v>
       </c>
       <c r="L60" s="77" t="str">
         <f t="shared" si="19"/>
@@ -14134,7 +14138,7 @@
       </c>
       <c r="M60" s="153" t="str">
         <f t="shared" si="20"/>
-        <v>obj_001ee#0001</v>
+        <v>obj_00204#0005</v>
       </c>
       <c r="N60" s="161" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M60,Trigger),"--")</f>
@@ -14142,7 +14146,7 @@
       </c>
       <c r="O60" s="154">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M60,Trigger),"--")</f>
-        <v>8.6250000000000007E-3</v>
+        <v>3.6750000000000003E-3</v>
       </c>
       <c r="P60" s="153" t="b">
         <v>1</v>
@@ -14155,11 +14159,11 @@
       </c>
       <c r="S60" s="155">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M60,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T60" s="155">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M60,Trigger),"--")</f>
-        <v>47758</v>
+        <v>47925</v>
       </c>
       <c r="V60" s="4" t="str">
         <f t="shared" si="18"/>
@@ -14225,7 +14229,7 @@
       </c>
       <c r="J61" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H61,,B61,JoinCalendar,JPY3M!D61,JPY3M!E61,JPY3M!F61,JPY3M!G61,JPY3M!I61,JPY3M!C61,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e9#0001</v>
+        <v>obj_001fb#0005</v>
       </c>
       <c r="L61" s="77" t="str">
         <f t="shared" si="19"/>
@@ -14617,7 +14621,7 @@
       </c>
       <c r="M65" s="153" t="str">
         <f t="shared" si="20"/>
-        <v>obj_001e5#0001</v>
+        <v>obj_00203#0005</v>
       </c>
       <c r="N65" s="161" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M65,Trigger),"--")</f>
@@ -14625,7 +14629,7 @@
       </c>
       <c r="O65" s="154">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M65,Trigger),"--")</f>
-        <v>1.1350000000000001E-2</v>
+        <v>5.4250000000000001E-3</v>
       </c>
       <c r="P65" s="153" t="b">
         <v>1</v>
@@ -14638,11 +14642,11 @@
       </c>
       <c r="S65" s="155">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M65,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T65" s="155">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M65,Trigger),"--")</f>
-        <v>49584</v>
+        <v>49752</v>
       </c>
       <c r="V65" s="4" t="str">
         <f t="shared" si="18"/>
@@ -14708,7 +14712,7 @@
       </c>
       <c r="J66" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H66,,B66,JoinCalendar,JPY3M!D66,JPY3M!E66,JPY3M!F66,JPY3M!G66,JPY3M!I66,JPY3M!C66,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ee#0001</v>
+        <v>obj_00204#0005</v>
       </c>
       <c r="L66" s="77" t="str">
         <f t="shared" si="19"/>
@@ -15191,7 +15195,7 @@
       </c>
       <c r="J71" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H71,,B71,JoinCalendar,JPY3M!D71,JPY3M!E71,JPY3M!F71,JPY3M!G71,JPY3M!I71,JPY3M!C71,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e5#0001</v>
+        <v>obj_00203#0005</v>
       </c>
       <c r="L71" s="77" t="str">
         <f t="shared" si="19"/>
@@ -15583,7 +15587,7 @@
       </c>
       <c r="M75" s="153" t="str">
         <f t="shared" si="20"/>
-        <v>obj_001f1#0001</v>
+        <v>obj_001f6#0005</v>
       </c>
       <c r="N75" s="161" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M75,Trigger),"--")</f>
@@ -15591,7 +15595,7 @@
       </c>
       <c r="O75" s="154">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M75,Trigger),"--")</f>
-        <v>1.3625E-2</v>
+        <v>7.0374999999999986E-3</v>
       </c>
       <c r="P75" s="153" t="b">
         <v>1</v>
@@ -15604,11 +15608,11 @@
       </c>
       <c r="S75" s="155">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M75,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T75" s="155">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M75,Trigger),"--")</f>
-        <v>53237</v>
+        <v>53405</v>
       </c>
       <c r="V75" s="4" t="str">
         <f t="shared" si="24"/>
@@ -16091,7 +16095,7 @@
       </c>
       <c r="J81" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H81,,B81,JoinCalendar,JPY3M!D81,JPY3M!E81,JPY3M!F81,JPY3M!G81,JPY3M!I81,JPY3M!C81,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f1#0001</v>
+        <v>obj_001f6#0005</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -16259,7 +16263,7 @@
   <dimension ref="A1:AL90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -16481,7 +16485,7 @@
       </c>
       <c r="W3" s="4" t="str">
         <f t="array" ref="W3:W58">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,IncludeFlag),_xll.ohFilter(Priority,IncludeFlag),$AJ$3,$AJ$4,$AJ$5,$AJ$6,_xll.ohFilter(MinDistance,IncludeFlag),Trigger)</f>
-        <v>obj_001da</v>
+        <v>obj_001e9</v>
       </c>
       <c r="X3" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W3,Trigger),"")</f>
@@ -16489,7 +16493,7 @@
       </c>
       <c r="Y3" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W3,Trigger),"")</f>
-        <v>1.292E-3</v>
+        <v>2.0100000000000001E-4</v>
       </c>
       <c r="Z3" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W3)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W3)),_xll.qlSwapRateHelperSpread($W3))</f>
@@ -16497,14 +16501,14 @@
       </c>
       <c r="AA3" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W3,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB3" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W3,Trigger),"")</f>
-        <v>42310</v>
+        <v>42478</v>
       </c>
       <c r="AC3" s="84">
-        <v>0.9998887568208662</v>
+        <v>0.99998269196623979</v>
       </c>
       <c r="AF3" s="203" t="s">
         <v>113</v>
@@ -16583,7 +16587,7 @@
       </c>
       <c r="Y4" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W4,Trigger),"")</f>
-        <v>1.297E-3</v>
+        <v>3.1300000000000002E-4</v>
       </c>
       <c r="Z4" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W4)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W4)),_xll.qlSwapRateHelperSpread($W4))</f>
@@ -16591,14 +16595,14 @@
       </c>
       <c r="AA4" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W4,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB4" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W4,Trigger),"")</f>
-        <v>42340</v>
+        <v>42508</v>
       </c>
       <c r="AC4" s="84">
-        <v>0.99978027884354781</v>
+        <v>0.9999469667015688</v>
       </c>
       <c r="AF4" s="118" t="s">
         <v>114</v>
@@ -16623,7 +16627,7 @@
       <c r="F5" s="173"/>
       <c r="G5" s="174" t="str">
         <f>_xll.qlLibor(,Currency,C5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001a4#0001</v>
+        <v>obj_001b3#0005</v>
       </c>
       <c r="H5" s="175" t="str">
         <f t="shared" si="0"/>
@@ -16670,7 +16674,7 @@
         <v>Dp</v>
       </c>
       <c r="W5" s="4" t="str">
-        <v>obj_001cd</v>
+        <v>obj_001e2</v>
       </c>
       <c r="X5" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W5,Trigger),"")</f>
@@ -16678,7 +16682,7 @@
       </c>
       <c r="Y5" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W5,Trigger),"")</f>
-        <v>1.2819999999999999E-3</v>
+        <v>3.5799999999999997E-4</v>
       </c>
       <c r="Z5" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W5)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W5)),_xll.qlSwapRateHelperSpread($W5))</f>
@@ -16686,14 +16690,14 @@
       </c>
       <c r="AA5" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W5,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB5" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W5,Trigger),"")</f>
-        <v>42373</v>
+        <v>42541</v>
       </c>
       <c r="AC5" s="84">
-        <v>0.99966536757190183</v>
+        <v>0.99990653095950033</v>
       </c>
       <c r="AF5" s="118" t="s">
         <v>115</v>
@@ -16718,7 +16722,7 @@
       <c r="F6" s="180"/>
       <c r="G6" s="181" t="str">
         <f>_xll.qlLibor(,Currency,C6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0019f#0001</v>
+        <v>obj_001b4#0005</v>
       </c>
       <c r="H6" s="182" t="str">
         <f t="shared" si="0"/>
@@ -16765,7 +16769,7 @@
         <v>Dp</v>
       </c>
       <c r="W6" s="4" t="str">
-        <v>obj_001d0</v>
+        <v>obj_001e3</v>
       </c>
       <c r="X6" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W6,Trigger),"")</f>
@@ -16773,7 +16777,7 @@
       </c>
       <c r="Y6" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W6,Trigger),"")</f>
-        <v>1.268E-3</v>
+        <v>3.4499999999999998E-4</v>
       </c>
       <c r="Z6" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W6)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W6)),_xll.qlSwapRateHelperSpread($W6))</f>
@@ -16781,14 +16785,14 @@
       </c>
       <c r="AA6" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W6,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB6" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W6,Trigger),"")</f>
-        <v>42402</v>
+        <v>42570</v>
       </c>
       <c r="AC6" s="84">
-        <v>0.99956695427650899</v>
+        <v>0.99988213889287803</v>
       </c>
       <c r="AF6" s="118" t="s">
         <v>116</v>
@@ -16822,7 +16826,7 @@
       <c r="I7" s="136"/>
       <c r="J7" s="70" t="str">
         <f>_xll.qlDepositRateHelper(,H7,G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001da#0001</v>
+        <v>obj_001e9#0005</v>
       </c>
       <c r="K7" s="53"/>
       <c r="L7" s="11" t="str">
@@ -16831,7 +16835,7 @@
       </c>
       <c r="M7" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001da#0001</v>
+        <v>obj_001e9#0005</v>
       </c>
       <c r="N7" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M7,Trigger),"--")</f>
@@ -16839,7 +16843,7 @@
       </c>
       <c r="O7" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M7,Trigger),"--")</f>
-        <v>1.292E-3</v>
+        <v>2.0100000000000001E-4</v>
       </c>
       <c r="P7" s="108" t="b">
         <v>1</v>
@@ -16852,18 +16856,18 @@
       </c>
       <c r="S7" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M7,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T7" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M7,Trigger),"--")</f>
-        <v>42310</v>
+        <v>42478</v>
       </c>
       <c r="V7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W7" s="4" t="str">
-        <v>obj_001e7</v>
+        <v>obj_001f4</v>
       </c>
       <c r="X7" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W7,Trigger),"")</f>
@@ -16871,7 +16875,7 @@
       </c>
       <c r="Y7" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W7,Trigger),"")</f>
-        <v>1.2570000000000001E-3</v>
+        <v>3.0200000000000002E-4</v>
       </c>
       <c r="Z7" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W7)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W7)),_xll.qlSwapRateHelperSpread($W7))</f>
@@ -16879,14 +16883,14 @@
       </c>
       <c r="AA7" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W7,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB7" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W7,Trigger),"")</f>
-        <v>42431</v>
+        <v>42600</v>
       </c>
       <c r="AC7" s="84">
-        <v>0.99946954819512124</v>
+        <v>0.99987166647160841</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -16914,7 +16918,7 @@
       <c r="I8" s="136"/>
       <c r="J8" s="70" t="str">
         <f>_xll.qlDepositRateHelper(,H8,G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001eb#0001</v>
+        <v>obj_001eb#0005</v>
       </c>
       <c r="K8" s="53"/>
       <c r="L8" s="11" t="str">
@@ -16923,7 +16927,7 @@
       </c>
       <c r="M8" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001eb#0001</v>
+        <v>obj_001eb#0005</v>
       </c>
       <c r="N8" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M8,Trigger),"--")</f>
@@ -16931,7 +16935,7 @@
       </c>
       <c r="O8" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M8,Trigger),"--")</f>
-        <v>1.297E-3</v>
+        <v>3.1300000000000002E-4</v>
       </c>
       <c r="P8" s="108" t="b">
         <v>1</v>
@@ -16944,18 +16948,18 @@
       </c>
       <c r="S8" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M8,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T8" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M8,Trigger),"--")</f>
-        <v>42340</v>
+        <v>42508</v>
       </c>
       <c r="V8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dp</v>
       </c>
       <c r="W8" s="4" t="str">
-        <v>obj_001cf</v>
+        <v>obj_001de</v>
       </c>
       <c r="X8" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W8,Trigger),"")</f>
@@ -16963,7 +16967,7 @@
       </c>
       <c r="Y8" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W8,Trigger),"")</f>
-        <v>1.2509999999999999E-3</v>
+        <v>2.31E-4</v>
       </c>
       <c r="Z8" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W8)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W8)),_xll.qlSwapRateHelperSpread($W8))</f>
@@ -16971,14 +16975,14 @@
       </c>
       <c r="AA8" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W8,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB8" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W8,Trigger),"")</f>
-        <v>42464</v>
+        <v>42633</v>
       </c>
       <c r="AC8" s="84">
-        <v>0.99935753802274352</v>
+        <v>0.99988066424272248</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17006,7 +17010,7 @@
       <c r="I9" s="136"/>
       <c r="J9" s="70" t="str">
         <f>_xll.qlDepositRateHelper(,H9,G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001cd#0001</v>
+        <v>obj_001e2#0005</v>
       </c>
       <c r="K9" s="53"/>
       <c r="L9" s="11" t="str">
@@ -17015,7 +17019,7 @@
       </c>
       <c r="M9" s="105" t="str">
         <f t="shared" si="3"/>
-        <v>obj_001cd#0001</v>
+        <v>obj_001e2#0005</v>
       </c>
       <c r="N9" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M9,Trigger),"--")</f>
@@ -17023,7 +17027,7 @@
       </c>
       <c r="O9" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M9,Trigger),"--")</f>
-        <v>1.2819999999999999E-3</v>
+        <v>3.5799999999999997E-4</v>
       </c>
       <c r="P9" s="108" t="b">
         <v>1</v>
@@ -17036,18 +17040,18 @@
       </c>
       <c r="S9" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M9,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T9" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M9,Trigger),"--")</f>
-        <v>42373</v>
+        <v>42541</v>
       </c>
       <c r="V9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W9" s="4" t="str">
-        <v>obj_001d3</v>
+        <v>obj_001e0</v>
       </c>
       <c r="X9" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W9,Trigger),"")</f>
@@ -17055,7 +17059,7 @@
       </c>
       <c r="Y9" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W9,Trigger),"")</f>
-        <v>1.25E-3</v>
+        <v>1.1250000000000001E-4</v>
       </c>
       <c r="Z9" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W9)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W9)),_xll.qlSwapRateHelperSpread($W9))</f>
@@ -17063,14 +17067,14 @@
       </c>
       <c r="AA9" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W9,Trigger),"")</f>
-        <v>42310</v>
+        <v>42478</v>
       </c>
       <c r="AB9" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W9,Trigger),"")</f>
-        <v>42493</v>
+        <v>42661</v>
       </c>
       <c r="AC9" s="84">
-        <v>0.99925480182087223</v>
+        <v>0.99992550872620956</v>
       </c>
       <c r="AG9" s="51" t="s">
         <v>157</v>
@@ -17092,7 +17096,7 @@
       <c r="F10" s="173"/>
       <c r="G10" s="174" t="str">
         <f>_xll.qlLibor(,Currency,C10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001a5#0001</v>
+        <v>obj_001b6#0005</v>
       </c>
       <c r="H10" s="175" t="str">
         <f t="shared" si="0"/>
@@ -17101,7 +17105,7 @@
       <c r="I10" s="173"/>
       <c r="J10" s="176" t="str">
         <f>_xll.qlDepositRateHelper(,H10,G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001d0#0001</v>
+        <v>obj_001e3#0005</v>
       </c>
       <c r="K10" s="53"/>
       <c r="L10" s="11" t="str">
@@ -17110,7 +17114,7 @@
       </c>
       <c r="M10" s="105" t="str">
         <f t="shared" ref="M10:M12" si="7">IF(ISBLANK(J10),"--",J10)</f>
-        <v>obj_001d0#0001</v>
+        <v>obj_001e3#0005</v>
       </c>
       <c r="N10" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M10,Trigger),"--")</f>
@@ -17118,7 +17122,7 @@
       </c>
       <c r="O10" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M10,Trigger),"--")</f>
-        <v>1.268E-3</v>
+        <v>3.4499999999999998E-4</v>
       </c>
       <c r="P10" s="108" t="b">
         <v>1</v>
@@ -17131,18 +17135,18 @@
       </c>
       <c r="S10" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M10,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T10" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M10,Trigger),"--")</f>
-        <v>42402</v>
+        <v>42570</v>
       </c>
       <c r="V10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W10" s="4" t="str">
-        <v>obj_001a2</v>
+        <v>obj_001b7</v>
       </c>
       <c r="X10" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W10,Trigger),"")</f>
@@ -17150,7 +17154,7 @@
       </c>
       <c r="Y10" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W10,Trigger),"")</f>
-        <v>1.25E-3</v>
+        <v>-1.4999999999999999E-4</v>
       </c>
       <c r="Z10" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W10)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W10)),_xll.qlSwapRateHelperSpread($W10))</f>
@@ -17158,14 +17162,14 @@
       </c>
       <c r="AA10" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W10,Trigger),"")</f>
-        <v>42340</v>
+        <v>42508</v>
       </c>
       <c r="AB10" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W10,Trigger),"")</f>
-        <v>42523</v>
+        <v>42692</v>
       </c>
       <c r="AC10" s="84">
-        <v>0.99914540520054451</v>
+        <v>1.0000236351802658</v>
       </c>
       <c r="AE10" s="80" t="s">
         <v>158</v>
@@ -17208,7 +17212,7 @@
       <c r="F11" s="180"/>
       <c r="G11" s="181" t="str">
         <f>_xll.qlLibor(,Currency,C11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ce#0001</v>
+        <v>obj_001e7#0005</v>
       </c>
       <c r="H11" s="182" t="str">
         <f t="shared" si="0"/>
@@ -17217,7 +17221,7 @@
       <c r="I11" s="180"/>
       <c r="J11" s="183" t="str">
         <f>_xll.qlDepositRateHelper(,H11,G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e7#0001</v>
+        <v>obj_001f4#0005</v>
       </c>
       <c r="K11" s="53"/>
       <c r="L11" s="11" t="str">
@@ -17226,7 +17230,7 @@
       </c>
       <c r="M11" s="105" t="str">
         <f t="shared" si="7"/>
-        <v>obj_001e7#0001</v>
+        <v>obj_001f4#0005</v>
       </c>
       <c r="N11" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M11,Trigger),"--")</f>
@@ -17234,7 +17238,7 @@
       </c>
       <c r="O11" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M11,Trigger),"--")</f>
-        <v>1.2570000000000001E-3</v>
+        <v>3.0200000000000002E-4</v>
       </c>
       <c r="P11" s="108" t="b">
         <v>1</v>
@@ -17247,18 +17251,18 @@
       </c>
       <c r="S11" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M11,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T11" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M11,Trigger),"--")</f>
-        <v>42431</v>
+        <v>42600</v>
       </c>
       <c r="V11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W11" s="4" t="str">
-        <v>obj_001a0</v>
+        <v>obj_001b9</v>
       </c>
       <c r="X11" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W11,Trigger),"")</f>
@@ -17266,7 +17270,7 @@
       </c>
       <c r="Y11" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W11,Trigger),"")</f>
-        <v>1.2000000000000001E-3</v>
+        <v>-3.8749999999999999E-4</v>
       </c>
       <c r="Z11" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W11)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W11)),_xll.qlSwapRateHelperSpread($W11))</f>
@@ -17274,21 +17278,21 @@
       </c>
       <c r="AA11" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W11,Trigger),"")</f>
-        <v>42373</v>
+        <v>42541</v>
       </c>
       <c r="AB11" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W11,Trigger),"")</f>
-        <v>42555</v>
+        <v>42723</v>
       </c>
       <c r="AC11" s="84">
-        <v>0.99905927161378949</v>
+        <v>1.0001013586925553</v>
       </c>
       <c r="AE11" s="185">
         <v>1</v>
       </c>
       <c r="AF11" s="186">
         <f>_xll.qlCalendarEndOfMonth(Calendar,Settlementdate,Trigger)</f>
-        <v>42307</v>
+        <v>42460</v>
       </c>
       <c r="AG11" s="186" t="str">
         <f t="shared" ref="AG11:AG23" si="8">Currency&amp;$AG$9&amp;AE11&amp;JumpSuffix&amp;QuoteSuffix</f>
@@ -17296,7 +17300,7 @@
       </c>
       <c r="AH11" s="187">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF11,_xll.qlCalendarAdvance(Calendar,AF11,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AI11" s="186" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG11,Trigger),_xll.qlQuoteValue(AG11,Trigger),1)</f>
@@ -17337,7 +17341,7 @@
       <c r="I12" s="137"/>
       <c r="J12" s="3" t="str">
         <f>_xll.qlDepositRateHelper(,H12,G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001cf#0001</v>
+        <v>obj_001de#0005</v>
       </c>
       <c r="K12" s="53" t="s">
         <v>42</v>
@@ -17348,7 +17352,7 @@
       </c>
       <c r="M12" s="106" t="str">
         <f t="shared" si="7"/>
-        <v>obj_001cf#0001</v>
+        <v>obj_001de#0005</v>
       </c>
       <c r="N12" s="159" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M12,Trigger),"--")</f>
@@ -17356,7 +17360,7 @@
       </c>
       <c r="O12" s="112">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M12,Trigger),"--")</f>
-        <v>1.2509999999999999E-3</v>
+        <v>2.31E-4</v>
       </c>
       <c r="P12" s="111" t="b">
         <v>1</v>
@@ -17369,18 +17373,18 @@
       </c>
       <c r="S12" s="113">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M12,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T12" s="113">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M12,Trigger),"--")</f>
-        <v>42464</v>
+        <v>42633</v>
       </c>
       <c r="V12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W12" s="4" t="str">
-        <v>obj_001a6</v>
+        <v>obj_001b8</v>
       </c>
       <c r="X12" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W12,Trigger),"")</f>
@@ -17388,7 +17392,7 @@
       </c>
       <c r="Y12" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W12,Trigger),"")</f>
-        <v>1.2000000000000001E-3</v>
+        <v>-5.6250000000000007E-4</v>
       </c>
       <c r="Z12" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W12)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W12)),_xll.qlSwapRateHelperSpread($W12))</f>
@@ -17396,21 +17400,21 @@
       </c>
       <c r="AA12" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W12,Trigger),"")</f>
-        <v>42402</v>
+        <v>42569</v>
       </c>
       <c r="AB12" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W12,Trigger),"")</f>
-        <v>42584</v>
+        <v>42753</v>
       </c>
       <c r="AC12" s="84">
-        <v>0.99896091798628006</v>
+        <v>1.000167330838359</v>
       </c>
       <c r="AE12" s="191">
         <v>2</v>
       </c>
       <c r="AF12" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF11,"1m","mf",TRUE),Trigger)</f>
-        <v>42338</v>
+        <v>42489</v>
       </c>
       <c r="AG12" s="192" t="str">
         <f t="shared" si="8"/>
@@ -17418,7 +17422,7 @@
       </c>
       <c r="AH12" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF12,_xll.qlCalendarAdvance(Calendar,AF12,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="AI12" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG12,Trigger),_xll.qlQuoteValue(AG12,Trigger),1)</f>
@@ -17449,7 +17453,7 @@
       </c>
       <c r="M13" s="143" t="str">
         <f>IF(ISBLANK(J15),"--",J15)</f>
-        <v>obj_001d3#0001</v>
+        <v>obj_001e0#0005</v>
       </c>
       <c r="N13" s="157" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M13,Trigger),"--")</f>
@@ -17457,7 +17461,7 @@
       </c>
       <c r="O13" s="145">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M13,Trigger),"--")</f>
-        <v>1.25E-3</v>
+        <v>1.1250000000000001E-4</v>
       </c>
       <c r="P13" s="144" t="b">
         <v>1</v>
@@ -17470,18 +17474,18 @@
       </c>
       <c r="S13" s="146">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M13,Trigger),"--")</f>
-        <v>42310</v>
+        <v>42478</v>
       </c>
       <c r="T13" s="146">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M13,Trigger),"--")</f>
-        <v>42493</v>
+        <v>42661</v>
       </c>
       <c r="V13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W13" s="4" t="str">
-        <v>obj_001a3</v>
+        <v>obj_001b5</v>
       </c>
       <c r="X13" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W13,Trigger),"")</f>
@@ -17489,7 +17493,7 @@
       </c>
       <c r="Y13" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W13,Trigger),"")</f>
-        <v>1.15E-3</v>
+        <v>-7.3749999999999998E-4</v>
       </c>
       <c r="Z13" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W13)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W13)),_xll.qlSwapRateHelperSpread($W13))</f>
@@ -17497,21 +17501,21 @@
       </c>
       <c r="AA13" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W13,Trigger),"")</f>
-        <v>42431</v>
+        <v>42600</v>
       </c>
       <c r="AB13" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W13,Trigger),"")</f>
-        <v>42615</v>
+        <v>42786</v>
       </c>
       <c r="AC13" s="84">
-        <v>0.99888242730174059</v>
+        <v>1.0002528044673107</v>
       </c>
       <c r="AE13" s="191">
         <v>3</v>
       </c>
       <c r="AF13" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF12,"1m","mf",TRUE),Trigger)</f>
-        <v>42369</v>
+        <v>42521</v>
       </c>
       <c r="AG13" s="192" t="str">
         <f t="shared" si="8"/>
@@ -17519,7 +17523,7 @@
       </c>
       <c r="AH13" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF13,_xll.qlCalendarAdvance(Calendar,AF13,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AI13" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG13,Trigger),_xll.qlQuoteValue(AG13,Trigger),1)</f>
@@ -17565,7 +17569,7 @@
       </c>
       <c r="M14" s="105" t="str">
         <f t="shared" ref="M14:M18" si="12">IF(ISBLANK(J16),"--",J16)</f>
-        <v>obj_001a2#0001</v>
+        <v>obj_001b7#0005</v>
       </c>
       <c r="N14" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M14,Trigger),"--")</f>
@@ -17573,7 +17577,7 @@
       </c>
       <c r="O14" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M14,Trigger),"--")</f>
-        <v>1.25E-3</v>
+        <v>-1.4999999999999999E-4</v>
       </c>
       <c r="P14" s="108" t="b">
         <v>1</v>
@@ -17586,18 +17590,18 @@
       </c>
       <c r="S14" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M14,Trigger),"--")</f>
-        <v>42340</v>
+        <v>42508</v>
       </c>
       <c r="T14" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M14,Trigger),"--")</f>
-        <v>42523</v>
+        <v>42692</v>
       </c>
       <c r="V14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>FRA</v>
       </c>
       <c r="W14" s="4" t="str">
-        <v>obj_001a1</v>
+        <v>obj_001ba</v>
       </c>
       <c r="X14" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W14,Trigger),"")</f>
@@ -17605,7 +17609,7 @@
       </c>
       <c r="Y14" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W14,Trigger),"")</f>
-        <v>1.1000000000000001E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="Z14" s="115" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W14)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W14)),_xll.qlSwapRateHelperSpread($W14))</f>
@@ -17613,21 +17617,21 @@
       </c>
       <c r="AA14" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W14,Trigger),"")</f>
-        <v>42464</v>
+        <v>42632</v>
       </c>
       <c r="AB14" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W14,Trigger),"")</f>
-        <v>42646</v>
+        <v>42814</v>
       </c>
       <c r="AC14" s="84">
-        <v>0.99880169793618645</v>
+        <v>1.0003328894268122</v>
       </c>
       <c r="AE14" s="191">
         <v>4</v>
       </c>
       <c r="AF14" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF13,"1m","mf",TRUE),Trigger)</f>
-        <v>42398</v>
+        <v>42551</v>
       </c>
       <c r="AG14" s="192" t="str">
         <f t="shared" si="8"/>
@@ -17635,7 +17639,7 @@
       </c>
       <c r="AH14" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF14,_xll.qlCalendarAdvance(Calendar,AF14,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AI14" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG14,Trigger),_xll.qlQuoteValue(AG14,Trigger),1)</f>
@@ -17676,7 +17680,7 @@
       <c r="I15" s="142"/>
       <c r="J15" s="63" t="str">
         <f>_xll.qlFraRateHelper(,H15,B15&amp;"M",G15,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001d3#0001</v>
+        <v>obj_001e0#0005</v>
       </c>
       <c r="K15" s="53"/>
       <c r="L15" s="11" t="str">
@@ -17685,7 +17689,7 @@
       </c>
       <c r="M15" s="105" t="str">
         <f t="shared" si="12"/>
-        <v>obj_001a0#0001</v>
+        <v>obj_001b9#0005</v>
       </c>
       <c r="N15" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M15,Trigger),"--")</f>
@@ -17693,7 +17697,7 @@
       </c>
       <c r="O15" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M15,Trigger),"--")</f>
-        <v>1.2000000000000001E-3</v>
+        <v>-3.8749999999999999E-4</v>
       </c>
       <c r="P15" s="108" t="b">
         <v>1</v>
@@ -17706,18 +17710,18 @@
       </c>
       <c r="S15" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M15,Trigger),"--")</f>
-        <v>42373</v>
+        <v>42541</v>
       </c>
       <c r="T15" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M15,Trigger),"--")</f>
-        <v>42555</v>
+        <v>42723</v>
       </c>
       <c r="V15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W15" s="4" t="str">
-        <v>obj_001e6</v>
+        <v>obj_001fd</v>
       </c>
       <c r="X15" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W15,Trigger),"")</f>
@@ -17725,7 +17729,7 @@
       </c>
       <c r="Y15" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W15,Trigger),"")</f>
-        <v>1.0999999999999998E-3</v>
+        <v>-6.3749999999999983E-4</v>
       </c>
       <c r="Z15" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W15)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W15)),_xll.qlSwapRateHelperSpread($W15))</f>
@@ -17733,21 +17737,21 @@
       </c>
       <c r="AA15" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W15,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB15" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W15,Trigger),"")</f>
-        <v>42828</v>
+        <v>42997</v>
       </c>
       <c r="AC15" s="84">
-        <v>0.99834755210012482</v>
+        <v>1.0009605482074775</v>
       </c>
       <c r="AE15" s="191">
         <v>5</v>
       </c>
       <c r="AF15" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF14,"1m","mf",TRUE),Trigger)</f>
-        <v>42429</v>
+        <v>42580</v>
       </c>
       <c r="AG15" s="192" t="str">
         <f t="shared" si="8"/>
@@ -17755,7 +17759,7 @@
       </c>
       <c r="AH15" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF15,_xll.qlCalendarAdvance(Calendar,AF15,"1D",,,Trigger))</f>
-        <v>2.7777777777777779E-3</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AI15" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG15,Trigger),_xll.qlQuoteValue(AG15,Trigger),1)</f>
@@ -17796,7 +17800,7 @@
       <c r="I16" s="136"/>
       <c r="J16" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H16,B16&amp;"M",G16,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001a2#0001</v>
+        <v>obj_001b7#0005</v>
       </c>
       <c r="K16" s="53"/>
       <c r="L16" s="11" t="str">
@@ -17805,7 +17809,7 @@
       </c>
       <c r="M16" s="105" t="str">
         <f t="shared" si="12"/>
-        <v>obj_001a6#0001</v>
+        <v>obj_001b8#0005</v>
       </c>
       <c r="N16" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M16,Trigger),"--")</f>
@@ -17813,7 +17817,7 @@
       </c>
       <c r="O16" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M16,Trigger),"--")</f>
-        <v>1.2000000000000001E-3</v>
+        <v>-5.6250000000000007E-4</v>
       </c>
       <c r="P16" s="108" t="b">
         <v>1</v>
@@ -17826,18 +17830,18 @@
       </c>
       <c r="S16" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M16,Trigger),"--")</f>
-        <v>42402</v>
+        <v>42569</v>
       </c>
       <c r="T16" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M16,Trigger),"--")</f>
-        <v>42584</v>
+        <v>42753</v>
       </c>
       <c r="V16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W16" s="4" t="str">
-        <v>obj_001ec</v>
+        <v>obj_001fe</v>
       </c>
       <c r="X16" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W16,Trigger),"")</f>
@@ -17845,7 +17849,7 @@
       </c>
       <c r="Y16" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W16,Trigger),"")</f>
-        <v>1.0999999999999998E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="Z16" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W16)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W16)),_xll.qlSwapRateHelperSpread($W16))</f>
@@ -17853,21 +17857,21 @@
       </c>
       <c r="AA16" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W16,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB16" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W16,Trigger),"")</f>
-        <v>43010</v>
+        <v>43178</v>
       </c>
       <c r="AC16" s="84">
-        <v>0.99780026548875256</v>
+        <v>1.0018028365266884</v>
       </c>
       <c r="AE16" s="191">
         <v>6</v>
       </c>
       <c r="AF16" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF15,"1m","mf",TRUE),Trigger)</f>
-        <v>42460</v>
+        <v>42613</v>
       </c>
       <c r="AG16" s="192" t="str">
         <f t="shared" si="8"/>
@@ -17916,7 +17920,7 @@
       <c r="I17" s="136"/>
       <c r="J17" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H17,B17&amp;"M",G17,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001a0#0001</v>
+        <v>obj_001b9#0005</v>
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="11" t="str">
@@ -17925,7 +17929,7 @@
       </c>
       <c r="M17" s="105" t="str">
         <f t="shared" si="12"/>
-        <v>obj_001a3#0001</v>
+        <v>obj_001b5#0005</v>
       </c>
       <c r="N17" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M17,Trigger),"--")</f>
@@ -17933,7 +17937,7 @@
       </c>
       <c r="O17" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M17,Trigger),"--")</f>
-        <v>1.15E-3</v>
+        <v>-7.3749999999999998E-4</v>
       </c>
       <c r="P17" s="108" t="b">
         <v>1</v>
@@ -17946,18 +17950,18 @@
       </c>
       <c r="S17" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M17,Trigger),"--")</f>
-        <v>42431</v>
+        <v>42600</v>
       </c>
       <c r="T17" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M17,Trigger),"--")</f>
-        <v>42615</v>
+        <v>42786</v>
       </c>
       <c r="V17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W17" s="4" t="str">
-        <v>obj_001d8</v>
+        <v>obj_001f5</v>
       </c>
       <c r="X17" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W17,Trigger),"")</f>
@@ -17965,7 +17969,7 @@
       </c>
       <c r="Y17" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W17,Trigger),"")</f>
-        <v>1.1999999999999999E-3</v>
+        <v>-1.075E-3</v>
       </c>
       <c r="Z17" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W17)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W17)),_xll.qlSwapRateHelperSpread($W17))</f>
@@ -17973,21 +17977,21 @@
       </c>
       <c r="AA17" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W17,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB17" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W17,Trigger),"")</f>
-        <v>43375</v>
+        <v>43542</v>
       </c>
       <c r="AC17" s="84">
-        <v>0.99640436154554934</v>
+        <v>1.0032281782569539</v>
       </c>
       <c r="AE17" s="191">
         <v>7</v>
       </c>
       <c r="AF17" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF16,"1m","mf",TRUE),Trigger)</f>
-        <v>42489</v>
+        <v>42643</v>
       </c>
       <c r="AG17" s="192" t="str">
         <f t="shared" si="8"/>
@@ -17995,7 +17999,7 @@
       </c>
       <c r="AH17" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF17,_xll.qlCalendarAdvance(Calendar,AF17,"1D",,,Trigger))</f>
-        <v>1.1111111111111112E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="AI17" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG17,Trigger),_xll.qlQuoteValue(AG17,Trigger),1)</f>
@@ -18036,7 +18040,7 @@
       <c r="I18" s="136"/>
       <c r="J18" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H18,B18&amp;"M",G18,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001a6#0001</v>
+        <v>obj_001b8#0005</v>
       </c>
       <c r="K18" s="53"/>
       <c r="L18" s="11" t="str">
@@ -18045,7 +18049,7 @@
       </c>
       <c r="M18" s="105" t="str">
         <f t="shared" si="12"/>
-        <v>obj_001a1#0001</v>
+        <v>obj_001ba#0005</v>
       </c>
       <c r="N18" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M18,Trigger),"--")</f>
@@ -18053,7 +18057,7 @@
       </c>
       <c r="O18" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M18,Trigger),"--")</f>
-        <v>1.1000000000000001E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="P18" s="108" t="b">
         <v>1</v>
@@ -18066,18 +18070,18 @@
       </c>
       <c r="S18" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M18,Trigger),"--")</f>
-        <v>42464</v>
+        <v>42632</v>
       </c>
       <c r="T18" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M18,Trigger),"--")</f>
-        <v>42646</v>
+        <v>42814</v>
       </c>
       <c r="V18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W18" s="4" t="str">
-        <v>obj_001e0</v>
+        <v>obj_001ef</v>
       </c>
       <c r="X18" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W18,Trigger),"")</f>
@@ -18085,7 +18089,7 @@
       </c>
       <c r="Y18" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W18,Trigger),"")</f>
-        <v>1.5E-3</v>
+        <v>-9.2500000000000004E-4</v>
       </c>
       <c r="Z18" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W18)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W18)),_xll.qlSwapRateHelperSpread($W18))</f>
@@ -18093,21 +18097,21 @@
       </c>
       <c r="AA18" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W18,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB18" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W18,Trigger),"")</f>
-        <v>43740</v>
+        <v>43908</v>
       </c>
       <c r="AC18" s="84">
-        <v>0.99401475245913917</v>
+        <v>1.0037096885081951</v>
       </c>
       <c r="AE18" s="191">
         <v>8</v>
       </c>
       <c r="AF18" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF17,"1m","mf",TRUE),Trigger)</f>
-        <v>42521</v>
+        <v>42674</v>
       </c>
       <c r="AG18" s="192" t="str">
         <f t="shared" si="8"/>
@@ -18156,7 +18160,7 @@
       <c r="I19" s="136"/>
       <c r="J19" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H19,B19&amp;"M",G19,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001a3#0001</v>
+        <v>obj_001b5#0005</v>
       </c>
       <c r="K19" s="53"/>
       <c r="L19" s="11" t="str">
@@ -18197,7 +18201,7 @@
         <v>Sw</v>
       </c>
       <c r="W19" s="4" t="str">
-        <v>obj_001d5</v>
+        <v>obj_001e8</v>
       </c>
       <c r="X19" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W19,Trigger),"")</f>
@@ -18205,7 +18209,7 @@
       </c>
       <c r="Y19" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W19,Trigger),"")</f>
-        <v>1.9750000000000002E-3</v>
+        <v>-6.2500000000000001E-4</v>
       </c>
       <c r="Z19" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W19)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W19)),_xll.qlSwapRateHelperSpread($W19))</f>
@@ -18213,21 +18217,21 @@
       </c>
       <c r="AA19" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W19,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB19" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W19,Trigger),"")</f>
-        <v>44106</v>
+        <v>44273</v>
       </c>
       <c r="AC19" s="84">
-        <v>0.99016007917175475</v>
+        <v>1.0031374200363987</v>
       </c>
       <c r="AE19" s="191">
         <v>9</v>
       </c>
       <c r="AF19" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF18,"1m","mf",TRUE),Trigger)</f>
-        <v>42551</v>
+        <v>42704</v>
       </c>
       <c r="AG19" s="192" t="str">
         <f t="shared" si="8"/>
@@ -18276,7 +18280,7 @@
       <c r="I20" s="136"/>
       <c r="J20" s="70" t="str">
         <f>_xll.qlFraRateHelper(,H20,B20&amp;"M",G20,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001a1#0001</v>
+        <v>obj_001ba#0005</v>
       </c>
       <c r="K20" s="53"/>
       <c r="L20" s="11" t="str">
@@ -18317,7 +18321,7 @@
         <v>Sw</v>
       </c>
       <c r="W20" s="4" t="str">
-        <v>obj_001e1</v>
+        <v>obj_001fa</v>
       </c>
       <c r="X20" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W20,Trigger),"")</f>
@@ -18325,7 +18329,7 @@
       </c>
       <c r="Y20" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W20,Trigger),"")</f>
-        <v>2.5249999999999999E-3</v>
+        <v>-2.5000000000000001E-4</v>
       </c>
       <c r="Z20" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W20)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W20)),_xll.qlSwapRateHelperSpread($W20))</f>
@@ -18333,21 +18337,21 @@
       </c>
       <c r="AA20" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W20,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB20" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W20,Trigger),"")</f>
-        <v>44473</v>
+        <v>44638</v>
       </c>
       <c r="AC20" s="84">
-        <v>0.98492230946167314</v>
+        <v>1.0015146306288243</v>
       </c>
       <c r="AE20" s="191">
         <v>10</v>
       </c>
       <c r="AF20" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF19,"1m","mf",TRUE),Trigger)</f>
-        <v>42580</v>
+        <v>42734</v>
       </c>
       <c r="AG20" s="192" t="str">
         <f t="shared" si="8"/>
@@ -18355,7 +18359,7 @@
       </c>
       <c r="AH20" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF20,_xll.qlCalendarAdvance(Calendar,AF20,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="AI20" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG20,Trigger),_xll.qlQuoteValue(AG20,Trigger),1)</f>
@@ -18434,7 +18438,7 @@
         <v>Sw</v>
       </c>
       <c r="W21" s="4" t="str">
-        <v>obj_001e4</v>
+        <v>obj_00201</v>
       </c>
       <c r="X21" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W21,Trigger),"")</f>
@@ -18442,7 +18446,7 @@
       </c>
       <c r="Y21" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W21,Trigger),"")</f>
-        <v>3.1250000000000002E-3</v>
+        <v>1.5000000000000004E-4</v>
       </c>
       <c r="Z21" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W21)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W21)),_xll.qlSwapRateHelperSpread($W21))</f>
@@ -18450,21 +18454,21 @@
       </c>
       <c r="AA21" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W21,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB21" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W21,Trigger),"")</f>
-        <v>44837</v>
+        <v>45005</v>
       </c>
       <c r="AC21" s="84">
-        <v>0.97829570504143981</v>
+        <v>0.99896816810169209</v>
       </c>
       <c r="AE21" s="191">
         <v>11</v>
       </c>
       <c r="AF21" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF20,"1m","mf",TRUE),Trigger)</f>
-        <v>42613</v>
+        <v>42766</v>
       </c>
       <c r="AG21" s="192" t="str">
         <f t="shared" si="8"/>
@@ -18551,7 +18555,7 @@
         <v>Sw</v>
       </c>
       <c r="W22" s="4" t="str">
-        <v>obj_001e8</v>
+        <v>obj_001f7</v>
       </c>
       <c r="X22" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W22,Trigger),"")</f>
@@ -18559,7 +18563,7 @@
       </c>
       <c r="Y22" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W22,Trigger),"")</f>
-        <v>3.7499999999999999E-3</v>
+        <v>5.6249999999999996E-4</v>
       </c>
       <c r="Z22" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W22)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W22)),_xll.qlSwapRateHelperSpread($W22))</f>
@@ -18567,21 +18571,21 @@
       </c>
       <c r="AA22" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W22,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB22" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W22,Trigger),"")</f>
-        <v>45201</v>
+        <v>45369</v>
       </c>
       <c r="AC22" s="84">
-        <v>0.97033441132531262</v>
+        <v>0.99552782665384409</v>
       </c>
       <c r="AE22" s="191">
         <v>12</v>
       </c>
       <c r="AF22" s="192">
         <f>_xll.qlCalendarEndOfMonth(Calendar,_xll.qlCalendarAdvance(Calendar,AF21,"1m","mf",TRUE),Trigger)</f>
-        <v>42643</v>
+        <v>42794</v>
       </c>
       <c r="AG22" s="192" t="str">
         <f t="shared" si="8"/>
@@ -18589,7 +18593,7 @@
       </c>
       <c r="AH22" s="193">
         <f>_xll.qlDayCounterYearFraction("actual/360",AF22,_xll.qlCalendarAdvance(Calendar,AF22,"1D",,,Trigger))</f>
-        <v>8.3333333333333332E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="AI22" s="192" t="e">
         <f>IF(_xll.qlQuoteIsValid(AG22,Trigger),_xll.qlQuoteValue(AG22,Trigger),1)</f>
@@ -18668,7 +18672,7 @@
         <v>Sw</v>
       </c>
       <c r="W23" s="4" t="str">
-        <v>obj_001de</v>
+        <v>obj_00205</v>
       </c>
       <c r="X23" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W23,Trigger),"")</f>
@@ -18676,7 +18680,7 @@
       </c>
       <c r="Y23" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W23,Trigger),"")</f>
-        <v>4.4000000000000003E-3</v>
+        <v>9.7500000000000006E-4</v>
       </c>
       <c r="Z23" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W23)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W23)),_xll.qlSwapRateHelperSpread($W23))</f>
@@ -18684,21 +18688,21 @@
       </c>
       <c r="AA23" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W23,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB23" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W23,Trigger),"")</f>
-        <v>45567</v>
+        <v>45734</v>
       </c>
       <c r="AC23" s="84">
-        <v>0.96096467387593465</v>
+        <v>0.99127485847067276</v>
       </c>
       <c r="AE23" s="197">
         <v>13</v>
       </c>
       <c r="AF23" s="198">
         <f>_xll.qlCalendarAdjust(Calendar,DATE(YEAR(AF11)+1,12,31),"preceding",Trigger)</f>
-        <v>42734</v>
+        <v>43098</v>
       </c>
       <c r="AG23" s="198" t="str">
         <f t="shared" si="8"/>
@@ -18741,7 +18745,7 @@
       </c>
       <c r="M24" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001e6#0001</v>
+        <v>obj_001fd#0005</v>
       </c>
       <c r="N24" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M24,Trigger),"--")</f>
@@ -18749,7 +18753,7 @@
       </c>
       <c r="O24" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M24,Trigger),"--")</f>
-        <v>1.0999999999999998E-3</v>
+        <v>-6.3749999999999983E-4</v>
       </c>
       <c r="P24" s="108" t="b">
         <v>1</v>
@@ -18762,18 +18766,18 @@
       </c>
       <c r="S24" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M24,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T24" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M24,Trigger),"--")</f>
-        <v>42828</v>
+        <v>42997</v>
       </c>
       <c r="V24" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W24" s="4" t="str">
-        <v>obj_001dd</v>
+        <v>obj_00200</v>
       </c>
       <c r="X24" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W24,Trigger),"")</f>
@@ -18781,7 +18785,7 @@
       </c>
       <c r="Y24" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W24,Trigger),"")</f>
-        <v>5.1000000000000004E-3</v>
+        <v>1.4124999999999999E-3</v>
       </c>
       <c r="Z24" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W24)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W24)),_xll.qlSwapRateHelperSpread($W24))</f>
@@ -18789,14 +18793,14 @@
       </c>
       <c r="AA24" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W24,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB24" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W24,Trigger),"")</f>
-        <v>45932</v>
+        <v>46099</v>
       </c>
       <c r="AC24" s="84">
-        <v>0.94992903764939329</v>
+        <v>0.98596851250967232</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -18869,7 +18873,7 @@
         <v>Sw</v>
       </c>
       <c r="W25" s="4" t="str">
-        <v>obj_001db</v>
+        <v>obj_001ee</v>
       </c>
       <c r="X25" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W25,Trigger),"")</f>
@@ -18877,7 +18881,7 @@
       </c>
       <c r="Y25" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W25,Trigger),"")</f>
-        <v>6.5000000000000006E-3</v>
+        <v>2.3375000000000002E-3</v>
       </c>
       <c r="Z25" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W25)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W25)),_xll.qlSwapRateHelperSpread($W25))</f>
@@ -18885,14 +18889,14 @@
       </c>
       <c r="AA25" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W25,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB25" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W25,Trigger),"")</f>
-        <v>46664</v>
+        <v>46833</v>
       </c>
       <c r="AC25" s="84">
-        <v>0.92410638407961943</v>
+        <v>0.97221434092585646</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -18933,7 +18937,7 @@
       </c>
       <c r="M26" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001ec#0001</v>
+        <v>obj_001fe#0005</v>
       </c>
       <c r="N26" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M26,Trigger),"--")</f>
@@ -18941,7 +18945,7 @@
       </c>
       <c r="O26" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M26,Trigger),"--")</f>
-        <v>1.0999999999999998E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="P26" s="108" t="b">
         <v>1</v>
@@ -18954,18 +18958,18 @@
       </c>
       <c r="S26" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M26,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T26" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M26,Trigger),"--")</f>
-        <v>43010</v>
+        <v>43178</v>
       </c>
       <c r="V26" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W26" s="4" t="str">
-        <v>obj_001ed</v>
+        <v>obj_00202</v>
       </c>
       <c r="X26" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W26,Trigger),"")</f>
@@ -18973,7 +18977,7 @@
       </c>
       <c r="Y26" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W26,Trigger),"")</f>
-        <v>8.6250000000000007E-3</v>
+        <v>3.6750000000000003E-3</v>
       </c>
       <c r="Z26" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W26)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W26)),_xll.qlSwapRateHelperSpread($W26))</f>
@@ -18981,14 +18985,14 @@
       </c>
       <c r="AA26" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W26,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB26" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W26,Trigger),"")</f>
-        <v>47758</v>
+        <v>47925</v>
       </c>
       <c r="AC26" s="84">
-        <v>0.87631478021620213</v>
+        <v>0.94589046624292561</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19029,7 +19033,7 @@
       </c>
       <c r="M27" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001d8#0001</v>
+        <v>obj_001f5#0005</v>
       </c>
       <c r="N27" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M27,Trigger),"--")</f>
@@ -19037,7 +19041,7 @@
       </c>
       <c r="O27" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M27,Trigger),"--")</f>
-        <v>1.1999999999999999E-3</v>
+        <v>-1.075E-3</v>
       </c>
       <c r="P27" s="108" t="b">
         <v>1</v>
@@ -19050,18 +19054,18 @@
       </c>
       <c r="S27" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M27,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T27" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M27,Trigger),"--")</f>
-        <v>43375</v>
+        <v>43542</v>
       </c>
       <c r="V27" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W27" s="4" t="str">
-        <v>obj_001d6</v>
+        <v>obj_001ed</v>
       </c>
       <c r="X27" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W27,Trigger),"")</f>
@@ -19069,7 +19073,7 @@
       </c>
       <c r="Y27" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W27,Trigger),"")</f>
-        <v>1.1350000000000001E-2</v>
+        <v>5.4250000000000001E-3</v>
       </c>
       <c r="Z27" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W27)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W27)),_xll.qlSwapRateHelperSpread($W27))</f>
@@ -19077,14 +19081,14 @@
       </c>
       <c r="AA27" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W27,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB27" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W27,Trigger),"")</f>
-        <v>49584</v>
+        <v>49752</v>
       </c>
       <c r="AC27" s="84">
-        <v>0.79056816471020275</v>
+        <v>0.89544628282326744</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19119,7 +19123,7 @@
       </c>
       <c r="J28" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H28,,B28,JoinCalendar,JPY6M!D28,JPY6M!E28,JPY6M!F28,JPY6M!G28,JPY6M!I28,JPY6M!C28,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e6#0001</v>
+        <v>obj_001fd#0005</v>
       </c>
       <c r="K28" s="53"/>
       <c r="L28" s="11" t="str">
@@ -19128,7 +19132,7 @@
       </c>
       <c r="M28" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001e0#0001</v>
+        <v>obj_001ef#0005</v>
       </c>
       <c r="N28" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M28,Trigger),"--")</f>
@@ -19136,7 +19140,7 @@
       </c>
       <c r="O28" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M28,Trigger),"--")</f>
-        <v>1.5E-3</v>
+        <v>-9.2500000000000004E-4</v>
       </c>
       <c r="P28" s="108" t="b">
         <v>1</v>
@@ -19149,18 +19153,18 @@
       </c>
       <c r="S28" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M28,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T28" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M28,Trigger),"--")</f>
-        <v>43740</v>
+        <v>43908</v>
       </c>
       <c r="V28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W28" s="4" t="str">
-        <v>obj_001ea</v>
+        <v>obj_001fc</v>
       </c>
       <c r="X28" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W28,Trigger),"")</f>
@@ -19168,7 +19172,7 @@
       </c>
       <c r="Y28" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W28,Trigger),"")</f>
-        <v>1.2825E-2</v>
+        <v>6.4624999999999995E-3</v>
       </c>
       <c r="Z28" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W28)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W28)),_xll.qlSwapRateHelperSpread($W28))</f>
@@ -19176,14 +19180,14 @@
       </c>
       <c r="AA28" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W28,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB28" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W28,Trigger),"")</f>
-        <v>51411</v>
+        <v>51578</v>
       </c>
       <c r="AC28" s="84">
-        <v>0.71565942795917936</v>
+        <v>0.84762791624855804</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19224,7 +19228,7 @@
       </c>
       <c r="M29" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001d5#0001</v>
+        <v>obj_001e8#0005</v>
       </c>
       <c r="N29" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M29,Trigger),"--")</f>
@@ -19232,7 +19236,7 @@
       </c>
       <c r="O29" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M29,Trigger),"--")</f>
-        <v>1.9750000000000002E-3</v>
+        <v>-6.2500000000000001E-4</v>
       </c>
       <c r="P29" s="108" t="b">
         <v>1</v>
@@ -19245,18 +19249,18 @@
       </c>
       <c r="S29" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M29,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T29" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M29,Trigger),"--")</f>
-        <v>44106</v>
+        <v>44273</v>
       </c>
       <c r="V29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Sw</v>
       </c>
       <c r="W29" s="4" t="str">
-        <v>obj_001f0</v>
+        <v>obj_001ec</v>
       </c>
       <c r="X29" s="4" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(W29,Trigger),"")</f>
@@ -19264,7 +19268,7 @@
       </c>
       <c r="Y29" s="76">
         <f>IFERROR(_xll.qlRateHelperRate(W29,Trigger),"")</f>
-        <v>1.3625E-2</v>
+        <v>7.0374999999999986E-3</v>
       </c>
       <c r="Z29" s="115">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($W29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($W29)),"",_xll.qlFuturesRateHelperConvexityAdjustment($W29)),_xll.qlSwapRateHelperSpread($W29))</f>
@@ -19272,14 +19276,14 @@
       </c>
       <c r="AA29" s="5">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(W29,Trigger),"")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="AB29" s="5">
         <f>IFERROR(_xll.qlRateHelperPillarDate(W29,Trigger),"")</f>
-        <v>53237</v>
+        <v>53405</v>
       </c>
       <c r="AC29" s="84">
-        <v>0.65186405206674114</v>
+        <v>0.80527894072144468</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -19314,7 +19318,7 @@
       </c>
       <c r="J30" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H30,,B30,JoinCalendar,JPY6M!D30,JPY6M!E30,JPY6M!F30,JPY6M!G30,JPY6M!I30,JPY6M!C30,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ec#0001</v>
+        <v>obj_001fe#0005</v>
       </c>
       <c r="K30" s="53"/>
       <c r="L30" s="11" t="str">
@@ -19323,7 +19327,7 @@
       </c>
       <c r="M30" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001e1#0001</v>
+        <v>obj_001fa#0005</v>
       </c>
       <c r="N30" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M30,Trigger),"--")</f>
@@ -19331,7 +19335,7 @@
       </c>
       <c r="O30" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M30,Trigger),"--")</f>
-        <v>2.5249999999999999E-3</v>
+        <v>-2.5000000000000001E-4</v>
       </c>
       <c r="P30" s="108" t="b">
         <v>1</v>
@@ -19344,11 +19348,11 @@
       </c>
       <c r="S30" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M30,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T30" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M30,Trigger),"--")</f>
-        <v>44473</v>
+        <v>44638</v>
       </c>
       <c r="V30" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19413,7 +19417,7 @@
       </c>
       <c r="J31" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H31,,B31,JoinCalendar,JPY6M!D31,JPY6M!E31,JPY6M!F31,JPY6M!G31,JPY6M!I31,JPY6M!C31,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001d8#0001</v>
+        <v>obj_001f5#0005</v>
       </c>
       <c r="K31" s="53"/>
       <c r="L31" s="11" t="str">
@@ -19422,7 +19426,7 @@
       </c>
       <c r="M31" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001e4#0001</v>
+        <v>obj_00201#0005</v>
       </c>
       <c r="N31" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M31,Trigger),"--")</f>
@@ -19430,7 +19434,7 @@
       </c>
       <c r="O31" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M31,Trigger),"--")</f>
-        <v>3.1250000000000002E-3</v>
+        <v>1.5000000000000004E-4</v>
       </c>
       <c r="P31" s="108" t="b">
         <v>1</v>
@@ -19443,11 +19447,11 @@
       </c>
       <c r="S31" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M31,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T31" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M31,Trigger),"--")</f>
-        <v>44837</v>
+        <v>45005</v>
       </c>
       <c r="V31" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19512,7 +19516,7 @@
       </c>
       <c r="J32" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H32,,B32,JoinCalendar,JPY6M!D32,JPY6M!E32,JPY6M!F32,JPY6M!G32,JPY6M!I32,JPY6M!C32,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e0#0001</v>
+        <v>obj_001ef#0005</v>
       </c>
       <c r="K32" s="53"/>
       <c r="L32" s="11" t="str">
@@ -19521,7 +19525,7 @@
       </c>
       <c r="M32" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001e8#0001</v>
+        <v>obj_001f7#0005</v>
       </c>
       <c r="N32" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M32,Trigger),"--")</f>
@@ -19529,7 +19533,7 @@
       </c>
       <c r="O32" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M32,Trigger),"--")</f>
-        <v>3.7499999999999999E-3</v>
+        <v>5.6249999999999996E-4</v>
       </c>
       <c r="P32" s="108" t="b">
         <v>1</v>
@@ -19542,11 +19546,11 @@
       </c>
       <c r="S32" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M32,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T32" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M32,Trigger),"--")</f>
-        <v>45201</v>
+        <v>45369</v>
       </c>
       <c r="V32" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19611,7 +19615,7 @@
       </c>
       <c r="J33" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H33,,B33,JoinCalendar,JPY6M!D33,JPY6M!E33,JPY6M!F33,JPY6M!G33,JPY6M!I33,JPY6M!C33,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001d5#0001</v>
+        <v>obj_001e8#0005</v>
       </c>
       <c r="K33" s="53"/>
       <c r="L33" s="11" t="str">
@@ -19620,7 +19624,7 @@
       </c>
       <c r="M33" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001de#0001</v>
+        <v>obj_00205#0005</v>
       </c>
       <c r="N33" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M33,Trigger),"--")</f>
@@ -19628,7 +19632,7 @@
       </c>
       <c r="O33" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M33,Trigger),"--")</f>
-        <v>4.4000000000000003E-3</v>
+        <v>9.7500000000000006E-4</v>
       </c>
       <c r="P33" s="108" t="b">
         <v>1</v>
@@ -19641,11 +19645,11 @@
       </c>
       <c r="S33" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M33,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T33" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M33,Trigger),"--")</f>
-        <v>45567</v>
+        <v>45734</v>
       </c>
       <c r="V33" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19710,7 +19714,7 @@
       </c>
       <c r="J34" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H34,,B34,JoinCalendar,JPY6M!D34,JPY6M!E34,JPY6M!F34,JPY6M!G34,JPY6M!I34,JPY6M!C34,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e1#0001</v>
+        <v>obj_001fa#0005</v>
       </c>
       <c r="K34" s="53"/>
       <c r="L34" s="11" t="str">
@@ -19719,7 +19723,7 @@
       </c>
       <c r="M34" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001dd#0001</v>
+        <v>obj_00200#0005</v>
       </c>
       <c r="N34" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M34,Trigger),"--")</f>
@@ -19727,7 +19731,7 @@
       </c>
       <c r="O34" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M34,Trigger),"--")</f>
-        <v>5.1000000000000004E-3</v>
+        <v>1.4124999999999999E-3</v>
       </c>
       <c r="P34" s="108" t="b">
         <v>1</v>
@@ -19740,11 +19744,11 @@
       </c>
       <c r="S34" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M34,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T34" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M34,Trigger),"--")</f>
-        <v>45932</v>
+        <v>46099</v>
       </c>
       <c r="V34" s="4" t="str">
         <f t="shared" si="1"/>
@@ -19809,7 +19813,7 @@
       </c>
       <c r="J35" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H35,,B35,JoinCalendar,JPY6M!D35,JPY6M!E35,JPY6M!F35,JPY6M!G35,JPY6M!I35,JPY6M!C35,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e4#0001</v>
+        <v>obj_00201#0005</v>
       </c>
       <c r="K35" s="53"/>
       <c r="L35" s="11" t="str">
@@ -19908,7 +19912,7 @@
       </c>
       <c r="J36" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H36,,B36,JoinCalendar,JPY6M!D36,JPY6M!E36,JPY6M!F36,JPY6M!G36,JPY6M!I36,JPY6M!C36,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001e8#0001</v>
+        <v>obj_001f7#0005</v>
       </c>
       <c r="K36" s="53"/>
       <c r="L36" s="11" t="str">
@@ -19917,7 +19921,7 @@
       </c>
       <c r="M36" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001db#0001</v>
+        <v>obj_001ee#0005</v>
       </c>
       <c r="N36" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M36,Trigger),"--")</f>
@@ -19925,7 +19929,7 @@
       </c>
       <c r="O36" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M36,Trigger),"--")</f>
-        <v>6.5000000000000006E-3</v>
+        <v>2.3375000000000002E-3</v>
       </c>
       <c r="P36" s="108" t="b">
         <v>1</v>
@@ -19938,11 +19942,11 @@
       </c>
       <c r="S36" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M36,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T36" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M36,Trigger),"--")</f>
-        <v>46664</v>
+        <v>46833</v>
       </c>
       <c r="V36" s="4" t="str">
         <f t="shared" si="21"/>
@@ -20007,7 +20011,7 @@
       </c>
       <c r="J37" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H37,,B37,JoinCalendar,JPY6M!D37,JPY6M!E37,JPY6M!F37,JPY6M!G37,JPY6M!I37,JPY6M!C37,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001de#0001</v>
+        <v>obj_00205#0005</v>
       </c>
       <c r="K37" s="53"/>
       <c r="L37" s="11" t="str">
@@ -20106,7 +20110,7 @@
       </c>
       <c r="J38" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H38,,B38,JoinCalendar,JPY6M!D38,JPY6M!E38,JPY6M!F38,JPY6M!G38,JPY6M!I38,JPY6M!C38,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001dd#0001</v>
+        <v>obj_00200#0005</v>
       </c>
       <c r="K38" s="53"/>
       <c r="L38" s="11" t="str">
@@ -20211,7 +20215,7 @@
       </c>
       <c r="M39" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001ed#0001</v>
+        <v>obj_00202#0005</v>
       </c>
       <c r="N39" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M39,Trigger),"--")</f>
@@ -20219,7 +20223,7 @@
       </c>
       <c r="O39" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M39,Trigger),"--")</f>
-        <v>8.6250000000000007E-3</v>
+        <v>3.6750000000000003E-3</v>
       </c>
       <c r="P39" s="108" t="b">
         <v>1</v>
@@ -20232,11 +20236,11 @@
       </c>
       <c r="S39" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M39,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T39" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M39,Trigger),"--")</f>
-        <v>47758</v>
+        <v>47925</v>
       </c>
       <c r="V39" s="4" t="str">
         <f t="shared" si="21"/>
@@ -20301,7 +20305,7 @@
       </c>
       <c r="J40" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H40,,B40,JoinCalendar,JPY6M!D40,JPY6M!E40,JPY6M!F40,JPY6M!G40,JPY6M!I40,JPY6M!C40,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001db#0001</v>
+        <v>obj_001ee#0005</v>
       </c>
       <c r="K40" s="53"/>
       <c r="L40" s="11" t="str">
@@ -20590,7 +20594,7 @@
       </c>
       <c r="J43" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H43,,B43,JoinCalendar,JPY6M!D43,JPY6M!E43,JPY6M!F43,JPY6M!G43,JPY6M!I43,JPY6M!C43,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ed#0001</v>
+        <v>obj_00202#0005</v>
       </c>
       <c r="L43" s="11" t="str">
         <f t="shared" si="17"/>
@@ -20693,7 +20697,7 @@
       </c>
       <c r="M44" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001d6#0001</v>
+        <v>obj_001ed#0005</v>
       </c>
       <c r="N44" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M44,Trigger),"--")</f>
@@ -20701,7 +20705,7 @@
       </c>
       <c r="O44" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M44,Trigger),"--")</f>
-        <v>1.1350000000000001E-2</v>
+        <v>5.4250000000000001E-3</v>
       </c>
       <c r="P44" s="108" t="b">
         <v>1</v>
@@ -20714,11 +20718,11 @@
       </c>
       <c r="S44" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M44,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T44" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M44,Trigger),"--")</f>
-        <v>49584</v>
+        <v>49752</v>
       </c>
       <c r="V44" s="4" t="str">
         <f t="shared" si="21"/>
@@ -21068,7 +21072,7 @@
       </c>
       <c r="J48" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H48,,B48,JoinCalendar,JPY6M!D48,JPY6M!E48,JPY6M!F48,JPY6M!G48,JPY6M!I48,JPY6M!C48,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001d6#0001</v>
+        <v>obj_001ed#0005</v>
       </c>
       <c r="L48" s="11" t="str">
         <f t="shared" si="17"/>
@@ -21171,7 +21175,7 @@
       </c>
       <c r="M49" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001ea#0001</v>
+        <v>obj_001fc#0005</v>
       </c>
       <c r="N49" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M49,Trigger),"--")</f>
@@ -21179,7 +21183,7 @@
       </c>
       <c r="O49" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M49,Trigger),"--")</f>
-        <v>1.2825E-2</v>
+        <v>6.4624999999999995E-3</v>
       </c>
       <c r="P49" s="108" t="b">
         <v>1</v>
@@ -21192,11 +21196,11 @@
       </c>
       <c r="S49" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M49,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T49" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M49,Trigger),"--")</f>
-        <v>51411</v>
+        <v>51578</v>
       </c>
       <c r="V49" s="4" t="str">
         <f t="shared" si="21"/>
@@ -21546,7 +21550,7 @@
       </c>
       <c r="J53" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H53,,B53,JoinCalendar,JPY6M!D53,JPY6M!E53,JPY6M!F53,JPY6M!G53,JPY6M!I53,JPY6M!C53,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001ea#0001</v>
+        <v>obj_001fc#0005</v>
       </c>
       <c r="L53" s="11" t="str">
         <f t="shared" si="17"/>
@@ -21649,7 +21653,7 @@
       </c>
       <c r="M54" s="105" t="str">
         <f t="shared" si="18"/>
-        <v>obj_001f0#0001</v>
+        <v>obj_001ec#0005</v>
       </c>
       <c r="N54" s="158" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(M54,Trigger),"--")</f>
@@ -21657,7 +21661,7 @@
       </c>
       <c r="O54" s="109">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($M54,Trigger),"--")</f>
-        <v>1.3625E-2</v>
+        <v>7.0374999999999986E-3</v>
       </c>
       <c r="P54" s="108" t="b">
         <v>1</v>
@@ -21670,11 +21674,11 @@
       </c>
       <c r="S54" s="110">
         <f>IFERROR(_xll.qlRateHelperEarliestDate(M54,Trigger),"--")</f>
-        <v>42279</v>
+        <v>42447</v>
       </c>
       <c r="T54" s="110">
         <f>IFERROR(_xll.qlRateHelperPillarDate(M54,Trigger),"--")</f>
-        <v>53237</v>
+        <v>53405</v>
       </c>
       <c r="V54" s="4" t="str">
         <f t="shared" si="21"/>
@@ -22024,7 +22028,7 @@
       </c>
       <c r="J58" s="70" t="str">
         <f>_xll.qlSwapRateHelper2(,H58,,B58,JoinCalendar,JPY6M!D58,JPY6M!E58,JPY6M!F58,JPY6M!G58,JPY6M!I58,JPY6M!C58,Discounting,PillarDate,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_001f0#0001</v>
+        <v>obj_001ec#0005</v>
       </c>
       <c r="L58" s="12" t="str">
         <f t="shared" si="22"/>
